--- a/SNOW/SNOW.xlsx
+++ b/SNOW/SNOW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/SNOW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2038" documentId="8_{802759B5-6396-440F-9600-E94D6CFC7CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BB84347-31FD-423E-B716-EBA27755841C}"/>
+  <xr:revisionPtr revIDLastSave="2059" documentId="8_{802759B5-6396-440F-9600-E94D6CFC7CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0383A363-836A-458E-8A2C-BA7A30050906}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="2" xr2:uid="{CEA71A0E-9C7D-494B-9C79-388ACB801F89}"/>
+    <workbookView xWindow="11750" yWindow="3410" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{CEA71A0E-9C7D-494B-9C79-388ACB801F89}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="161">
   <si>
     <t>Customers</t>
   </si>
@@ -590,8 +590,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -733,11 +733,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -778,10 +778,8 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,6 +795,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1750,13 +1752,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10509CD6-51EE-4611-BDC3-0F92F29296AB}">
-  <dimension ref="A1:AO153"/>
+  <dimension ref="A1:AO154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="AC116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="S11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AG154" sqref="AG154"/>
+      <selection pane="bottomRight" activeCell="AG30" sqref="AD30:AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2185,7 +2187,7 @@
       <c r="H12" s="24">
         <v>104</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12">
         <v>116</v>
       </c>
       <c r="J12">
@@ -4561,15 +4563,15 @@
         <v>0.78470727251736805</v>
       </c>
       <c r="P42" s="29">
-        <f>P36/P$40</f>
+        <f t="shared" ref="P42:Q45" si="134">P36/P$40</f>
         <v>0.77451856080590253</v>
       </c>
       <c r="Q42" s="9">
-        <f>Q36/Q$40</f>
+        <f t="shared" si="134"/>
         <v>0.76610268568495199</v>
       </c>
       <c r="R42" s="9">
-        <f t="shared" ref="R42" si="134">R36/R$40</f>
+        <f t="shared" ref="R42" si="135">R36/R$40</f>
         <v>0.77603371412460009</v>
       </c>
       <c r="S42" s="9" t="e">
@@ -4577,7 +4579,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T42" s="9" t="e">
-        <f t="shared" ref="T42" si="135">T36/T$40</f>
+        <f t="shared" ref="T42" si="136">T36/T$40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA42" s="9" t="e">
@@ -4585,59 +4587,59 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB42" s="9" t="e">
-        <f t="shared" ref="AB42:AO42" si="136">AB36/AB$40</f>
+        <f t="shared" ref="AB42:AO42" si="137">AB36/AB$40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC42" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0.93333747129290545</v>
       </c>
       <c r="AD42" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0.88424507824140253</v>
       </c>
       <c r="AE42" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0.84383218280919314</v>
       </c>
       <c r="AF42" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0.80132482918856063</v>
       </c>
       <c r="AG42" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0.79095484782338232</v>
       </c>
       <c r="AH42" s="9" t="e">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI42" s="9" t="e">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ42" s="9" t="e">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK42" s="9" t="e">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL42" s="9" t="e">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM42" s="9" t="e">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN42" s="9" t="e">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO42" s="9" t="e">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4646,15 +4648,15 @@
         <v>117</v>
       </c>
       <c r="D43" s="9" t="e">
-        <f t="shared" ref="D43:F43" si="137">D37/D$40</f>
+        <f t="shared" ref="D43:F43" si="138">D37/D$40</f>
         <v>#VALUE!</v>
       </c>
       <c r="E43" s="9" t="e">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>#VALUE!</v>
       </c>
       <c r="F43" s="9" t="e">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>#VALUE!</v>
       </c>
       <c r="G43" s="9" t="e">
@@ -4682,7 +4684,7 @@
         <v>2.1606597043831135E-2</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" ref="M43" si="138">M37/M$40</f>
+        <f t="shared" ref="M43" si="139">M37/M$40</f>
         <v>2.1222810348156252E-2</v>
       </c>
       <c r="N43" s="9">
@@ -4690,19 +4692,19 @@
         <v>2.0891229884314612E-2</v>
       </c>
       <c r="O43" s="9">
-        <f t="shared" ref="O43" si="139">O37/O$40</f>
+        <f t="shared" ref="O43" si="140">O37/O$40</f>
         <v>2.5909489110578391E-2</v>
       </c>
       <c r="P43" s="29">
-        <f>P37/P$40</f>
+        <f t="shared" si="134"/>
         <v>2.7030190875867343E-2</v>
       </c>
       <c r="Q43" s="9">
-        <f>Q37/Q$40</f>
+        <f t="shared" si="134"/>
         <v>2.6471103145613323E-2</v>
       </c>
       <c r="R43" s="9">
-        <f t="shared" ref="R43" si="140">R37/R$40</f>
+        <f t="shared" ref="R43" si="141">R37/R$40</f>
         <v>2.463043451611541E-2</v>
       </c>
       <c r="S43" s="9" t="e">
@@ -4710,7 +4712,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T43" s="9" t="e">
-        <f t="shared" ref="T43" si="141">T37/T$40</f>
+        <f t="shared" ref="T43" si="142">T37/T$40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA43" s="9" t="e">
@@ -4718,59 +4720,59 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB43" s="9" t="e">
-        <f t="shared" ref="AB43:AO43" si="142">AB37/AB$40</f>
+        <f t="shared" ref="AB43:AO43" si="143">AB37/AB$40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC43" s="9">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>6.6621149111373186E-3</v>
       </c>
       <c r="AD43" s="9">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>1.1692721923475447E-2</v>
       </c>
       <c r="AE43" s="9">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>1.6012188180370205E-2</v>
       </c>
       <c r="AF43" s="9">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>2.1588958499237695E-2</v>
       </c>
       <c r="AG43" s="9">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>2.2548252155849536E-2</v>
       </c>
       <c r="AH43" s="9" t="e">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI43" s="9" t="e">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ43" s="9" t="e">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK43" s="9" t="e">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL43" s="9" t="e">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM43" s="9" t="e">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN43" s="9" t="e">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO43" s="9" t="e">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4779,15 +4781,15 @@
         <v>118</v>
       </c>
       <c r="D44" s="9" t="e">
-        <f t="shared" ref="D44:F44" si="143">D38/D$40</f>
+        <f t="shared" ref="D44:F44" si="144">D38/D$40</f>
         <v>#VALUE!</v>
       </c>
       <c r="E44" s="9" t="e">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>#VALUE!</v>
       </c>
       <c r="F44" s="9" t="e">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>#VALUE!</v>
       </c>
       <c r="G44" s="9" t="e">
@@ -4815,7 +4817,7 @@
         <v>0.13736265037135598</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" ref="M44" si="144">M38/M$40</f>
+        <f t="shared" ref="M44" si="145">M38/M$40</f>
         <v>0.14010312761438959</v>
       </c>
       <c r="N44" s="9">
@@ -4823,19 +4825,19 @@
         <v>0.14240935823692885</v>
       </c>
       <c r="O44" s="9">
-        <f t="shared" ref="O44" si="145">O38/O$40</f>
+        <f t="shared" ref="O44" si="146">O38/O$40</f>
         <v>0.14542318322886461</v>
       </c>
       <c r="P44" s="29">
-        <f>P38/P$40</f>
+        <f t="shared" si="134"/>
         <v>0.15216509327308095</v>
       </c>
       <c r="Q44" s="9">
-        <f>Q38/Q$40</f>
+        <f t="shared" si="134"/>
         <v>0.15768718342833574</v>
       </c>
       <c r="R44" s="9">
-        <f t="shared" ref="R44" si="146">R38/R$40</f>
+        <f t="shared" ref="R44" si="147">R38/R$40</f>
         <v>0.15038962206455428</v>
       </c>
       <c r="S44" s="9" t="e">
@@ -4843,7 +4845,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T44" s="9" t="e">
-        <f t="shared" ref="T44" si="147">T38/T$40</f>
+        <f t="shared" ref="T44" si="148">T38/T$40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA44" s="9" t="e">
@@ -4851,59 +4853,59 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB44" s="9" t="e">
-        <f t="shared" ref="AB44:AO44" si="148">AB38/AB$40</f>
+        <f t="shared" ref="AB44:AO44" si="149">AB38/AB$40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC44" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>1.1327664328719508E-2</v>
       </c>
       <c r="AD44" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>8.4186085207118497E-2</v>
       </c>
       <c r="AE44" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.11285045663450154</v>
       </c>
       <c r="AF44" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.13882084133296482</v>
       </c>
       <c r="AG44" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.14168166188126888</v>
       </c>
       <c r="AH44" s="9" t="e">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI44" s="9" t="e">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ44" s="9" t="e">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK44" s="9" t="e">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL44" s="9" t="e">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM44" s="9" t="e">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN44" s="9" t="e">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO44" s="9" t="e">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4912,15 +4914,15 @@
         <v>119</v>
       </c>
       <c r="D45" s="20" t="e">
-        <f t="shared" ref="D45:F45" si="149">D39/D$40</f>
+        <f t="shared" ref="D45:F45" si="150">D39/D$40</f>
         <v>#VALUE!</v>
       </c>
       <c r="E45" s="20" t="e">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>#VALUE!</v>
       </c>
       <c r="F45" s="20" t="e">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>#VALUE!</v>
       </c>
       <c r="G45" s="20" t="e">
@@ -4948,7 +4950,7 @@
         <v>4.5699160216965656E-2</v>
       </c>
       <c r="M45" s="20">
-        <f t="shared" ref="M45" si="150">M39/M$40</f>
+        <f t="shared" ref="M45" si="151">M39/M$40</f>
         <v>4.5741762661689944E-2</v>
       </c>
       <c r="N45" s="20">
@@ -4956,19 +4958,19 @@
         <v>4.4222193498351971E-2</v>
       </c>
       <c r="O45" s="20">
-        <f t="shared" ref="O45" si="151">O39/O$40</f>
+        <f t="shared" ref="O45" si="152">O39/O$40</f>
         <v>4.3960055143188931E-2</v>
       </c>
       <c r="P45" s="36">
-        <f>P39/P$40</f>
+        <f t="shared" si="134"/>
         <v>4.6286155045149206E-2</v>
       </c>
       <c r="Q45" s="20">
-        <f>Q39/Q$40</f>
+        <f t="shared" si="134"/>
         <v>4.9739027741098903E-2</v>
       </c>
       <c r="R45" s="20">
-        <f t="shared" ref="R45" si="152">R39/R$40</f>
+        <f t="shared" ref="R45" si="153">R39/R$40</f>
         <v>4.8946229294730262E-2</v>
       </c>
       <c r="S45" s="20" t="e">
@@ -4976,7 +4978,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T45" s="20" t="e">
-        <f t="shared" ref="T45" si="153">T39/T$40</f>
+        <f t="shared" ref="T45" si="154">T39/T$40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA45" s="20" t="e">
@@ -4984,59 +4986,59 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB45" s="20" t="e">
-        <f t="shared" ref="AB45:AO45" si="154">AB39/AB$40</f>
+        <f t="shared" ref="AB45:AO45" si="155">AB39/AB$40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC45" s="20">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>4.8672749467237708E-2</v>
       </c>
       <c r="AD45" s="20">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>1.9876114628003538E-2</v>
       </c>
       <c r="AE45" s="20">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>2.7305172375935102E-2</v>
       </c>
       <c r="AF45" s="20">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>3.8265370979236907E-2</v>
       </c>
       <c r="AG45" s="20">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>4.4815238139499308E-2</v>
       </c>
       <c r="AH45" s="20" t="e">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI45" s="20" t="e">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ45" s="20" t="e">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK45" s="20" t="e">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL45" s="20" t="e">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM45" s="20" t="e">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN45" s="20" t="e">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO45" s="20" t="e">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5045,131 +5047,131 @@
         <v>123</v>
       </c>
       <c r="D46" s="9" t="e">
-        <f t="shared" ref="D46" si="155">SUM(D42:D45)</f>
+        <f t="shared" ref="D46" si="156">SUM(D42:D45)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E46" s="9" t="e">
-        <f t="shared" ref="E46" si="156">SUM(E42:E45)</f>
+        <f t="shared" ref="E46" si="157">SUM(E42:E45)</f>
         <v>#VALUE!</v>
       </c>
       <c r="F46" s="9" t="e">
-        <f t="shared" ref="F46" si="157">SUM(F42:F45)</f>
+        <f t="shared" ref="F46" si="158">SUM(F42:F45)</f>
         <v>#VALUE!</v>
       </c>
       <c r="G46" s="9" t="e">
-        <f t="shared" ref="G46" si="158">SUM(G42:G45)</f>
+        <f t="shared" ref="G46" si="159">SUM(G42:G45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H46" s="29">
-        <f t="shared" ref="H46" si="159">SUM(H42:H45)</f>
+        <f t="shared" ref="H46" si="160">SUM(H42:H45)</f>
         <v>1</v>
       </c>
       <c r="I46" s="9">
-        <f t="shared" ref="I46" si="160">SUM(I42:I45)</f>
+        <f t="shared" ref="I46" si="161">SUM(I42:I45)</f>
         <v>1</v>
       </c>
       <c r="J46" s="9">
-        <f t="shared" ref="J46" si="161">SUM(J42:J45)</f>
+        <f t="shared" ref="J46" si="162">SUM(J42:J45)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="K46" s="9">
-        <f t="shared" ref="K46" si="162">SUM(K42:K45)</f>
+        <f t="shared" ref="K46" si="163">SUM(K42:K45)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="L46" s="29">
-        <f t="shared" ref="L46" si="163">SUM(L42:L45)</f>
+        <f t="shared" ref="L46" si="164">SUM(L42:L45)</f>
         <v>1</v>
       </c>
       <c r="M46" s="9">
-        <f t="shared" ref="M46" si="164">SUM(M42:M45)</f>
+        <f t="shared" ref="M46" si="165">SUM(M42:M45)</f>
         <v>1</v>
       </c>
       <c r="N46" s="9">
-        <f t="shared" ref="N46" si="165">SUM(N42:N45)</f>
+        <f t="shared" ref="N46" si="166">SUM(N42:N45)</f>
         <v>1</v>
       </c>
       <c r="O46" s="9">
-        <f t="shared" ref="O46" si="166">SUM(O42:O45)</f>
+        <f t="shared" ref="O46" si="167">SUM(O42:O45)</f>
         <v>1</v>
       </c>
       <c r="P46" s="29">
-        <f t="shared" ref="P46" si="167">SUM(P42:P45)</f>
+        <f t="shared" ref="P46" si="168">SUM(P42:P45)</f>
         <v>1</v>
       </c>
       <c r="Q46" s="9">
-        <f t="shared" ref="Q46" si="168">SUM(Q42:Q45)</f>
+        <f t="shared" ref="Q46" si="169">SUM(Q42:Q45)</f>
         <v>1</v>
       </c>
       <c r="R46" s="9">
-        <f t="shared" ref="R46" si="169">SUM(R42:R45)</f>
+        <f t="shared" ref="R46" si="170">SUM(R42:R45)</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="S46" s="9" t="e">
-        <f t="shared" ref="S46" si="170">SUM(S42:S45)</f>
+        <f t="shared" ref="S46" si="171">SUM(S42:S45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T46" s="9" t="e">
-        <f t="shared" ref="T46" si="171">SUM(T42:T45)</f>
+        <f t="shared" ref="T46" si="172">SUM(T42:T45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA46" s="9" t="e">
-        <f t="shared" ref="AA46" si="172">SUM(AA42:AA45)</f>
+        <f t="shared" ref="AA46" si="173">SUM(AA42:AA45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB46" s="9" t="e">
-        <f t="shared" ref="AB46" si="173">SUM(AB42:AB45)</f>
+        <f t="shared" ref="AB46" si="174">SUM(AB42:AB45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC46" s="9">
-        <f t="shared" ref="AC46" si="174">SUM(AC42:AC45)</f>
+        <f t="shared" ref="AC46" si="175">SUM(AC42:AC45)</f>
         <v>1</v>
       </c>
       <c r="AD46" s="9">
-        <f t="shared" ref="AD46" si="175">SUM(AD42:AD45)</f>
+        <f t="shared" ref="AD46" si="176">SUM(AD42:AD45)</f>
         <v>1</v>
       </c>
       <c r="AE46" s="9">
-        <f t="shared" ref="AE46" si="176">SUM(AE42:AE45)</f>
+        <f t="shared" ref="AE46" si="177">SUM(AE42:AE45)</f>
         <v>1</v>
       </c>
       <c r="AF46" s="9">
-        <f t="shared" ref="AF46" si="177">SUM(AF42:AF45)</f>
+        <f t="shared" ref="AF46" si="178">SUM(AF42:AF45)</f>
         <v>1</v>
       </c>
       <c r="AG46" s="9">
-        <f t="shared" ref="AG46" si="178">SUM(AG42:AG45)</f>
+        <f t="shared" ref="AG46" si="179">SUM(AG42:AG45)</f>
         <v>1</v>
       </c>
       <c r="AH46" s="9" t="e">
-        <f t="shared" ref="AH46" si="179">SUM(AH42:AH45)</f>
+        <f t="shared" ref="AH46" si="180">SUM(AH42:AH45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI46" s="9" t="e">
-        <f t="shared" ref="AI46" si="180">SUM(AI42:AI45)</f>
+        <f t="shared" ref="AI46" si="181">SUM(AI42:AI45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ46" s="9" t="e">
-        <f t="shared" ref="AJ46" si="181">SUM(AJ42:AJ45)</f>
+        <f t="shared" ref="AJ46" si="182">SUM(AJ42:AJ45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK46" s="9" t="e">
-        <f t="shared" ref="AK46" si="182">SUM(AK42:AK45)</f>
+        <f t="shared" ref="AK46" si="183">SUM(AK42:AK45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL46" s="9" t="e">
-        <f t="shared" ref="AL46" si="183">SUM(AL42:AL45)</f>
+        <f t="shared" ref="AL46" si="184">SUM(AL42:AL45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM46" s="9" t="e">
-        <f t="shared" ref="AM46" si="184">SUM(AM42:AM45)</f>
+        <f t="shared" ref="AM46" si="185">SUM(AM42:AM45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN46" s="9" t="e">
-        <f t="shared" ref="AN46" si="185">SUM(AN42:AN45)</f>
+        <f t="shared" ref="AN46" si="186">SUM(AN42:AN45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO46" s="9" t="e">
-        <f t="shared" ref="AO46" si="186">SUM(AO42:AO45)</f>
+        <f t="shared" ref="AO46" si="187">SUM(AO42:AO45)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5330,35 +5332,35 @@
         <v>50</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" ref="D51" si="187">D49-D50</f>
+        <f t="shared" ref="D51" si="188">D49-D50</f>
         <v>66258</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" ref="E51" si="188">E49-E50</f>
+        <f t="shared" ref="E51" si="189">E49-E50</f>
         <v>82699</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" ref="F51" si="189">F49-F50</f>
+        <f t="shared" ref="F51" si="190">F49-F50</f>
         <v>92943</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" ref="G51" si="190">G49-G50</f>
+        <f t="shared" ref="G51" si="191">G49-G50</f>
         <v>107561</v>
       </c>
       <c r="H51" s="31">
-        <f t="shared" ref="H51" si="191">H49-H50</f>
+        <f t="shared" ref="H51" si="192">H49-H50</f>
         <v>131568</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" ref="I51" si="192">I49-I50</f>
+        <f t="shared" ref="I51" si="193">I49-I50</f>
         <v>166077</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" ref="J51" si="193">J49-J50</f>
+        <f t="shared" ref="J51" si="194">J49-J50</f>
         <v>213655</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" ref="K51" si="194">K49-K50</f>
+        <f t="shared" ref="K51" si="195">K49-K50</f>
         <v>249594</v>
       </c>
       <c r="L51" s="31">
@@ -5366,7 +5368,7 @@
         <v>274441</v>
       </c>
       <c r="M51" s="5">
-        <f t="shared" ref="M51" si="195">M49-M50</f>
+        <f t="shared" ref="M51" si="196">M49-M50</f>
         <v>324016</v>
       </c>
       <c r="N51" s="5">
@@ -5374,7 +5376,7 @@
         <v>366307</v>
       </c>
       <c r="O51" s="5">
-        <f t="shared" ref="O51" si="196">O49-O50</f>
+        <f t="shared" ref="O51" si="197">O49-O50</f>
         <v>383355</v>
       </c>
       <c r="P51" s="31">
@@ -5386,7 +5388,7 @@
         <v>455626</v>
       </c>
       <c r="R51" s="5">
-        <f t="shared" ref="R51" si="197">R49-R50</f>
+        <f t="shared" ref="R51" si="198">R49-R50</f>
         <v>505225</v>
       </c>
       <c r="S51" s="5">
@@ -5394,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="T51" s="5">
-        <f t="shared" ref="T51" si="198">T49-T50</f>
+        <f t="shared" ref="T51" si="199">T49-T50</f>
         <v>0</v>
       </c>
       <c r="AA51" s="5">
@@ -5402,59 +5404,59 @@
         <v>0</v>
       </c>
       <c r="AB51" s="5">
-        <f t="shared" ref="AB51:AO51" si="199">AB49-AB50</f>
+        <f t="shared" ref="AB51:AO51" si="200">AB49-AB50</f>
         <v>0</v>
       </c>
       <c r="AC51" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>44913</v>
       </c>
       <c r="AD51" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>148191</v>
       </c>
       <c r="AE51" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>349461</v>
       </c>
       <c r="AF51" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>760894</v>
       </c>
       <c r="AG51" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>1348119</v>
       </c>
       <c r="AH51" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="AI51" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="AJ51" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="AK51" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="AL51" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="AM51" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="AN51" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
       <c r="AO51" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0</v>
       </c>
     </row>
@@ -5463,35 +5465,35 @@
         <v>51</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" ref="D52" si="200">D51/D49</f>
+        <f t="shared" ref="D52" si="201">D51/D49</f>
         <v>0.60890502228553045</v>
       </c>
       <c r="E52" s="9">
-        <f t="shared" ref="E52" si="201">E51/E49</f>
+        <f t="shared" ref="E52" si="202">E51/E49</f>
         <v>0.62111983176236429</v>
       </c>
       <c r="F52" s="9">
-        <f t="shared" ref="F52" si="202">F51/F49</f>
+        <f t="shared" ref="F52" si="203">F51/F49</f>
         <v>0.5822620658547587</v>
       </c>
       <c r="G52" s="9">
-        <f t="shared" ref="G52" si="203">G51/G49</f>
+        <f t="shared" ref="G52" si="204">G51/G49</f>
         <v>0.56472842779513299</v>
       </c>
       <c r="H52" s="29">
-        <f t="shared" ref="H52" si="204">H51/H49</f>
+        <f t="shared" ref="H52" si="205">H51/H49</f>
         <v>0.57474859554243074</v>
       </c>
       <c r="I52" s="9">
-        <f t="shared" ref="I52" si="205">I51/I49</f>
+        <f t="shared" ref="I52" si="206">I51/I49</f>
         <v>0.61013306490128505</v>
       </c>
       <c r="J52" s="9">
-        <f t="shared" ref="J52" si="206">J51/J49</f>
+        <f t="shared" ref="J52" si="207">J51/J49</f>
         <v>0.63884212760995218</v>
       </c>
       <c r="K52" s="9">
-        <f t="shared" ref="K52" si="207">K51/K49</f>
+        <f t="shared" ref="K52" si="208">K51/K49</f>
         <v>0.65036714316238198</v>
       </c>
       <c r="L52" s="29">
@@ -5499,7 +5501,7 @@
         <v>0.64976288618300027</v>
       </c>
       <c r="M52" s="9">
-        <f t="shared" ref="M52" si="208">M51/M49</f>
+        <f t="shared" ref="M52" si="209">M51/M49</f>
         <v>0.6516185082695154</v>
       </c>
       <c r="N52" s="9">
@@ -5507,7 +5509,7 @@
         <v>0.65760967132711456</v>
       </c>
       <c r="O52" s="9">
-        <f t="shared" ref="O52" si="209">O51/O49</f>
+        <f t="shared" ref="O52" si="210">O51/O49</f>
         <v>0.6508441254167997</v>
       </c>
       <c r="P52" s="29">
@@ -5519,7 +5521,7 @@
         <v>0.67598491434946839</v>
       </c>
       <c r="R52" s="9">
-        <f t="shared" ref="R52" si="210">R51/R49</f>
+        <f t="shared" ref="R52" si="211">R51/R49</f>
         <v>0.68815524406372885</v>
       </c>
       <c r="S52" s="9" t="e">
@@ -5527,7 +5529,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T52" s="9" t="e">
-        <f t="shared" ref="T52" si="211">T51/T49</f>
+        <f t="shared" ref="T52" si="212">T51/T49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA52" s="9" t="e">
@@ -5535,59 +5537,59 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB52" s="9" t="e">
-        <f t="shared" ref="AB52:AO52" si="212">AB51/AB49</f>
+        <f t="shared" ref="AB52:AO52" si="213">AB51/AB49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC52" s="9">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.4646204456582459</v>
       </c>
       <c r="AD52" s="9">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.55974360523969968</v>
       </c>
       <c r="AE52" s="9">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.59025688752113425</v>
       </c>
       <c r="AF52" s="9">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.6240278448685217</v>
       </c>
       <c r="AG52" s="9">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.65263385679824215</v>
       </c>
       <c r="AH52" s="9" t="e">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI52" s="9" t="e">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ52" s="9" t="e">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK52" s="9" t="e">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL52" s="9" t="e">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM52" s="9" t="e">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN52" s="9" t="e">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO52" s="9" t="e">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5808,35 +5810,35 @@
         <v>98</v>
       </c>
       <c r="D57" s="11">
-        <f t="shared" ref="D57" si="213">SUM(D54:D56)</f>
+        <f t="shared" ref="D57" si="214">SUM(D54:D56)</f>
         <v>162661</v>
       </c>
       <c r="E57" s="11">
-        <f t="shared" ref="E57" si="214">SUM(E54:E56)</f>
+        <f t="shared" ref="E57" si="215">SUM(E54:E56)</f>
         <v>160382</v>
       </c>
       <c r="F57" s="11">
-        <f t="shared" ref="F57" si="215">SUM(F54:F56)</f>
+        <f t="shared" ref="F57" si="216">SUM(F54:F56)</f>
         <v>262397</v>
       </c>
       <c r="G57" s="11">
-        <f t="shared" ref="G57" si="216">SUM(G54:G56)</f>
+        <f t="shared" ref="G57" si="217">SUM(G54:G56)</f>
         <v>307958</v>
       </c>
       <c r="H57" s="39">
-        <f t="shared" ref="H57" si="217">SUM(H54:H56)</f>
+        <f t="shared" ref="H57" si="218">SUM(H54:H56)</f>
         <v>337163</v>
       </c>
       <c r="I57" s="11">
-        <f t="shared" ref="I57" si="218">SUM(I54:I56)</f>
+        <f t="shared" ref="I57" si="219">SUM(I54:I56)</f>
         <v>366218</v>
       </c>
       <c r="J57" s="11">
-        <f t="shared" ref="J57" si="219">SUM(J54:J56)</f>
+        <f t="shared" ref="J57" si="220">SUM(J54:J56)</f>
         <v>370926</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" ref="K57" si="220">SUM(K54:K56)</f>
+        <f t="shared" ref="K57" si="221">SUM(K54:K56)</f>
         <v>401623</v>
       </c>
       <c r="L57" s="39">
@@ -5844,7 +5846,7 @@
         <v>463207</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" ref="M57" si="221">SUM(M54:M56)</f>
+        <f t="shared" ref="M57" si="222">SUM(M54:M56)</f>
         <v>531748</v>
       </c>
       <c r="N57" s="11">
@@ -5852,7 +5854,7 @@
         <v>572326</v>
       </c>
       <c r="O57" s="11">
-        <f t="shared" ref="O57" si="222">SUM(O54:O56)</f>
+        <f t="shared" ref="O57" si="223">SUM(O54:O56)</f>
         <v>623105</v>
       </c>
       <c r="P57" s="39">
@@ -5864,7 +5866,7 @@
         <v>741033</v>
       </c>
       <c r="R57" s="11">
-        <f t="shared" ref="R57" si="223">SUM(R54:R56)</f>
+        <f t="shared" ref="R57" si="224">SUM(R54:R56)</f>
         <v>765848</v>
       </c>
       <c r="S57" s="11">
@@ -5872,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="11">
-        <f t="shared" ref="T57" si="224">SUM(T54:T56)</f>
+        <f t="shared" ref="T57" si="225">SUM(T54:T56)</f>
         <v>0</v>
       </c>
       <c r="AA57" s="11">
@@ -5880,59 +5882,59 @@
         <v>0</v>
       </c>
       <c r="AB57" s="11">
-        <f t="shared" ref="AB57:AO57" si="225">SUM(AB54:AB56)</f>
+        <f t="shared" ref="AB57:AO57" si="226">SUM(AB54:AB56)</f>
         <v>0</v>
       </c>
       <c r="AC57" s="11">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>230378</v>
       </c>
       <c r="AD57" s="11">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>506279</v>
       </c>
       <c r="AE57" s="11">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>893398</v>
       </c>
       <c r="AF57" s="11">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>1475930</v>
       </c>
       <c r="AG57" s="11">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>2190386</v>
       </c>
       <c r="AH57" s="11">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="AI57" s="11">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="AJ57" s="11">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="AK57" s="11">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="AL57" s="11">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="AM57" s="11">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="AN57" s="11">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
       <c r="AO57" s="11">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>0</v>
       </c>
     </row>
@@ -5941,35 +5943,35 @@
         <v>99</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" ref="D58" si="226">D51-D57</f>
+        <f t="shared" ref="D58" si="227">D51-D57</f>
         <v>-96403</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" ref="E58" si="227">E51-E57</f>
+        <f t="shared" ref="E58" si="228">E51-E57</f>
         <v>-77683</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" ref="F58" si="228">F51-F57</f>
+        <f t="shared" ref="F58" si="229">F51-F57</f>
         <v>-169454</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" ref="G58" si="229">G51-G57</f>
+        <f t="shared" ref="G58" si="230">G51-G57</f>
         <v>-200397</v>
       </c>
       <c r="H58" s="31">
-        <f t="shared" ref="H58" si="230">H51-H57</f>
+        <f t="shared" ref="H58" si="231">H51-H57</f>
         <v>-205595</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" ref="I58" si="231">I51-I57</f>
+        <f t="shared" ref="I58" si="232">I51-I57</f>
         <v>-200141</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" ref="J58" si="232">J51-J57</f>
+        <f t="shared" ref="J58" si="233">J51-J57</f>
         <v>-157271</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" ref="K58" si="233">K51-K57</f>
+        <f t="shared" ref="K58" si="234">K51-K57</f>
         <v>-152029</v>
       </c>
       <c r="L58" s="31">
@@ -5977,7 +5979,7 @@
         <v>-188766</v>
       </c>
       <c r="M58" s="5">
-        <f t="shared" ref="M58" si="234">M51-M57</f>
+        <f t="shared" ref="M58" si="235">M51-M57</f>
         <v>-207732</v>
       </c>
       <c r="N58" s="5">
@@ -5985,7 +5987,7 @@
         <v>-206019</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" ref="O58" si="235">O51-O57</f>
+        <f t="shared" ref="O58" si="236">O51-O57</f>
         <v>-239750</v>
       </c>
       <c r="P58" s="31">
@@ -5997,7 +5999,7 @@
         <v>-285407</v>
       </c>
       <c r="R58" s="5">
-        <f t="shared" ref="R58" si="236">R51-R57</f>
+        <f t="shared" ref="R58" si="237">R51-R57</f>
         <v>-260623</v>
       </c>
       <c r="S58" s="5">
@@ -6005,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="5">
-        <f t="shared" ref="T58" si="237">T51-T57</f>
+        <f t="shared" ref="T58" si="238">T51-T57</f>
         <v>0</v>
       </c>
       <c r="AA58" s="5">
@@ -6013,59 +6015,59 @@
         <v>0</v>
       </c>
       <c r="AB58" s="5">
-        <f t="shared" ref="AB58:AO58" si="238">AB51-AB57</f>
+        <f t="shared" ref="AB58:AO58" si="239">AB51-AB57</f>
         <v>0</v>
       </c>
       <c r="AC58" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-185465</v>
       </c>
       <c r="AD58" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-358088</v>
       </c>
       <c r="AE58" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-543937</v>
       </c>
       <c r="AF58" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-715036</v>
       </c>
       <c r="AG58" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-842267</v>
       </c>
       <c r="AH58" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>0</v>
       </c>
       <c r="AI58" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>0</v>
       </c>
       <c r="AJ58" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>0</v>
       </c>
       <c r="AK58" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>0</v>
       </c>
       <c r="AL58" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>0</v>
       </c>
       <c r="AM58" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>0</v>
       </c>
       <c r="AN58" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>0</v>
       </c>
       <c r="AO58" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>0</v>
       </c>
     </row>
@@ -6074,35 +6076,35 @@
         <v>100</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" ref="D59" si="239">D58/D49</f>
+        <f t="shared" ref="D59" si="240">D58/D49</f>
         <v>-0.88593484354179108</v>
       </c>
       <c r="E59" s="9">
-        <f t="shared" ref="E59" si="240">E58/E49</f>
+        <f t="shared" ref="E59" si="241">E58/E49</f>
         <v>-0.58344661834841716</v>
       </c>
       <c r="F59" s="9">
-        <f t="shared" ref="F59" si="241">F58/F49</f>
+        <f t="shared" ref="F59" si="242">F58/F49</f>
         <v>-1.0615822182128001</v>
       </c>
       <c r="G59" s="9">
-        <f t="shared" ref="G59" si="242">G58/G49</f>
+        <f t="shared" ref="G59" si="243">G58/G49</f>
         <v>-1.0521460635812354</v>
       </c>
       <c r="H59" s="29">
-        <f t="shared" ref="H59" si="243">H58/H49</f>
+        <f t="shared" ref="H59" si="244">H58/H49</f>
         <v>-0.89813204959067594</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" ref="I59" si="244">I58/I49</f>
+        <f t="shared" ref="I59" si="245">I58/I49</f>
         <v>-0.73527726140530059</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" ref="J59" si="245">J58/J49</f>
+        <f t="shared" ref="J59" si="246">J58/J49</f>
         <v>-0.47025035806016607</v>
       </c>
       <c r="K59" s="9">
-        <f t="shared" ref="K59" si="246">K58/K49</f>
+        <f t="shared" ref="K59" si="247">K58/K49</f>
         <v>-0.3961420002397244</v>
       </c>
       <c r="L59" s="29">
@@ -6110,7 +6112,7 @@
         <v>-0.44691988796579313</v>
       </c>
       <c r="M59" s="9">
-        <f t="shared" ref="M59" si="247">M58/M49</f>
+        <f t="shared" ref="M59" si="248">M58/M49</f>
         <v>-0.41776336958620247</v>
       </c>
       <c r="N59" s="9">
@@ -6118,7 +6120,7 @@
         <v>-0.369853939119757</v>
       </c>
       <c r="O59" s="9">
-        <f t="shared" ref="O59" si="248">O58/O49</f>
+        <f t="shared" ref="O59" si="249">O58/O49</f>
         <v>-0.40703754762211974</v>
       </c>
       <c r="P59" s="29">
@@ -6130,7 +6132,7 @@
         <v>-0.42344121373613169</v>
       </c>
       <c r="R59" s="9">
-        <f t="shared" ref="R59" si="249">R58/R49</f>
+        <f t="shared" ref="R59" si="250">R58/R49</f>
         <v>-0.35498853812384817</v>
       </c>
       <c r="S59" s="9" t="e">
@@ -6138,7 +6140,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T59" s="9" t="e">
-        <f t="shared" ref="T59" si="250">T58/T49</f>
+        <f t="shared" ref="T59" si="251">T58/T49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA59" s="9" t="e">
@@ -6146,59 +6148,59 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB59" s="9" t="e">
-        <f t="shared" ref="AB59:AO59" si="251">AB58/AB49</f>
+        <f t="shared" ref="AB59:AO59" si="252">AB58/AB49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC59" s="9">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>-1.9186166801150353</v>
       </c>
       <c r="AD59" s="9">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>-1.3525616812969314</v>
       </c>
       <c r="AE59" s="9">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>-0.91873645593523512</v>
       </c>
       <c r="AF59" s="9">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>-0.58641857352457549</v>
       </c>
       <c r="AG59" s="9">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>-0.40774735810702539</v>
       </c>
       <c r="AH59" s="9" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI59" s="9" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ59" s="9" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK59" s="9" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL59" s="9" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM59" s="9" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN59" s="9" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO59" s="9" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6351,35 +6353,35 @@
         <v>103</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" ref="D63" si="252">D58+SUM(D61:D62)</f>
+        <f t="shared" ref="D63" si="253">D58+SUM(D61:D62)</f>
         <v>-93888</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" ref="E63" si="253">E58+SUM(E61:E62)</f>
+        <f t="shared" ref="E63" si="254">E58+SUM(E61:E62)</f>
         <v>-77103</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" ref="F63" si="254">F58+SUM(F61:F62)</f>
+        <f t="shared" ref="F63" si="255">F58+SUM(F61:F62)</f>
         <v>-168456</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" ref="G63" si="255">G58+SUM(G61:G62)</f>
+        <f t="shared" ref="G63" si="256">G58+SUM(G61:G62)</f>
         <v>-197593</v>
       </c>
       <c r="H63" s="31">
-        <f t="shared" ref="H63" si="256">H58+SUM(H61:H62)</f>
+        <f t="shared" ref="H63" si="257">H58+SUM(H61:H62)</f>
         <v>-203471</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" ref="I63" si="257">I58+SUM(I61:I62)</f>
+        <f t="shared" ref="I63" si="258">I58+SUM(I61:I62)</f>
         <v>-189205</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" ref="J63" si="258">J58+SUM(J61:J62)</f>
+        <f t="shared" ref="J63" si="259">J58+SUM(J61:J62)</f>
         <v>-153677</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" ref="K63" si="259">K58+SUM(K61:K62)</f>
+        <f t="shared" ref="K63" si="260">K58+SUM(K61:K62)</f>
         <v>-130607</v>
       </c>
       <c r="L63" s="31">
@@ -6387,7 +6389,7 @@
         <v>-192488</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" ref="M63" si="260">M58+SUM(M61:M62)</f>
+        <f t="shared" ref="M63" si="261">M58+SUM(M61:M62)</f>
         <v>-218960</v>
       </c>
       <c r="N63" s="5">
@@ -6395,7 +6397,7 @@
         <v>-197433</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" ref="O63" si="261">O58+SUM(O61:O62)</f>
+        <f t="shared" ref="O63" si="262">O58+SUM(O61:O62)</f>
         <v>-207112</v>
       </c>
       <c r="P63" s="31">
@@ -6407,7 +6409,7 @@
         <v>-231041</v>
       </c>
       <c r="R63" s="5">
-        <f t="shared" ref="R63" si="262">R58+SUM(R61:R62)</f>
+        <f t="shared" ref="R63" si="263">R58+SUM(R61:R62)</f>
         <v>-211302</v>
       </c>
       <c r="S63" s="5">
@@ -6415,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="5">
-        <f t="shared" ref="T63" si="263">T58+SUM(T61:T62)</f>
+        <f t="shared" ref="T63" si="264">T58+SUM(T61:T62)</f>
         <v>0</v>
       </c>
       <c r="AA63" s="5">
@@ -6423,59 +6425,59 @@
         <v>0</v>
       </c>
       <c r="AB63" s="5">
-        <f t="shared" ref="AB63:AO63" si="264">AB58+SUM(AB61:AB62)</f>
+        <f t="shared" ref="AB63:AO63" si="265">AB58+SUM(AB61:AB62)</f>
         <v>0</v>
       </c>
       <c r="AC63" s="5">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>-177208</v>
       </c>
       <c r="AD63" s="5">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>-347542</v>
       </c>
       <c r="AE63" s="5">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>-537040</v>
       </c>
       <c r="AF63" s="5">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>-676960</v>
       </c>
       <c r="AG63" s="5">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>-815993</v>
       </c>
       <c r="AH63" s="5">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="AI63" s="5">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="AJ63" s="5">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="AK63" s="5">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="AL63" s="5">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="AM63" s="5">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="AN63" s="5">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="AO63" s="5">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
     </row>
@@ -6552,35 +6554,35 @@
         <v>104</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" ref="D65" si="265">D63-D64</f>
+        <f t="shared" ref="D65" si="266">D63-D64</f>
         <v>-93644</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" ref="E65" si="266">E63-E64</f>
+        <f t="shared" ref="E65" si="267">E63-E64</f>
         <v>-77634</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" ref="F65" si="267">F63-F64</f>
+        <f t="shared" ref="F65" si="268">F63-F64</f>
         <v>-168889</v>
       </c>
       <c r="G65" s="5">
-        <f t="shared" ref="G65" si="268">G63-G64</f>
+        <f t="shared" ref="G65" si="269">G63-G64</f>
         <v>-198935</v>
       </c>
       <c r="H65" s="31">
-        <f t="shared" ref="H65" si="269">H63-H64</f>
+        <f t="shared" ref="H65" si="270">H63-H64</f>
         <v>-203220</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" ref="I65" si="270">I63-I64</f>
+        <f t="shared" ref="I65" si="271">I63-I64</f>
         <v>-189719</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" ref="J65" si="271">J63-J64</f>
+        <f t="shared" ref="J65" si="272">J63-J64</f>
         <v>-154856</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" ref="K65" si="272">K63-K64</f>
+        <f t="shared" ref="K65" si="273">K63-K64</f>
         <v>-132153</v>
       </c>
       <c r="L65" s="31">
@@ -6588,7 +6590,7 @@
         <v>-165794</v>
       </c>
       <c r="M65" s="5">
-        <f t="shared" ref="M65" si="273">M63-M64</f>
+        <f t="shared" ref="M65" si="274">M63-M64</f>
         <v>-222806</v>
       </c>
       <c r="N65" s="5">
@@ -6596,7 +6598,7 @@
         <v>-201442</v>
       </c>
       <c r="O65" s="5">
-        <f t="shared" ref="O65" si="274">O63-O64</f>
+        <f t="shared" ref="O65" si="275">O63-O64</f>
         <v>-207484</v>
       </c>
       <c r="P65" s="31">
@@ -6608,7 +6610,7 @@
         <v>-227320</v>
       </c>
       <c r="R65" s="5">
-        <f t="shared" ref="R65" si="275">R63-R64</f>
+        <f t="shared" ref="R65" si="276">R63-R64</f>
         <v>-214694</v>
       </c>
       <c r="S65" s="5">
@@ -6616,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="5">
-        <f t="shared" ref="T65" si="276">T63-T64</f>
+        <f t="shared" ref="T65" si="277">T63-T64</f>
         <v>0</v>
       </c>
       <c r="AA65" s="5">
@@ -6624,59 +6626,59 @@
         <v>0</v>
       </c>
       <c r="AB65" s="5">
-        <f t="shared" ref="AB65:AO65" si="277">AB63-AB64</f>
+        <f t="shared" ref="AB65:AO65" si="278">AB63-AB64</f>
         <v>0</v>
       </c>
       <c r="AC65" s="5">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>-178028</v>
       </c>
       <c r="AD65" s="5">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>-348535</v>
       </c>
       <c r="AE65" s="5">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>-539102</v>
       </c>
       <c r="AF65" s="5">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>-679948</v>
       </c>
       <c r="AG65" s="5">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>-797526</v>
       </c>
       <c r="AH65" s="5">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="AI65" s="5">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="AJ65" s="5">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="AK65" s="5">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="AL65" s="5">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="AM65" s="5">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="AN65" s="5">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="AO65" s="5">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
     </row>
@@ -6753,35 +6755,35 @@
         <v>106</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" ref="D67" si="278">D65-D66</f>
+        <f t="shared" ref="D67" si="279">D65-D66</f>
         <v>-93644</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" ref="E67" si="279">E65-E66</f>
+        <f t="shared" ref="E67" si="280">E65-E66</f>
         <v>-77634</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" ref="F67" si="280">F65-F66</f>
+        <f t="shared" ref="F67" si="281">F65-F66</f>
         <v>-168889</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" ref="G67" si="281">G65-G66</f>
+        <f t="shared" ref="G67" si="282">G65-G66</f>
         <v>-198935</v>
       </c>
       <c r="H67" s="31">
-        <f t="shared" ref="H67" si="282">H65-H66</f>
+        <f t="shared" ref="H67" si="283">H65-H66</f>
         <v>-203220</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" ref="I67" si="283">I65-I66</f>
+        <f t="shared" ref="I67" si="284">I65-I66</f>
         <v>-189719</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" ref="J67" si="284">J65-J66</f>
+        <f t="shared" ref="J67" si="285">J65-J66</f>
         <v>-154856</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" ref="K67" si="285">K65-K66</f>
+        <f t="shared" ref="K67" si="286">K65-K66</f>
         <v>-132153</v>
       </c>
       <c r="L67" s="31">
@@ -6789,7 +6791,7 @@
         <v>-165794</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" ref="M67" si="286">M65-M66</f>
+        <f t="shared" ref="M67" si="287">M65-M66</f>
         <v>-222806</v>
       </c>
       <c r="N67" s="5">
@@ -6797,7 +6799,7 @@
         <v>-200936</v>
       </c>
       <c r="O67" s="5">
-        <f t="shared" ref="O67" si="287">O65-O66</f>
+        <f t="shared" ref="O67" si="288">O65-O66</f>
         <v>-207169</v>
       </c>
       <c r="P67" s="31">
@@ -6809,7 +6811,7 @@
         <v>-226867</v>
       </c>
       <c r="R67" s="5">
-        <f t="shared" ref="R67" si="288">R65-R66</f>
+        <f t="shared" ref="R67" si="289">R65-R66</f>
         <v>-214251</v>
       </c>
       <c r="S67" s="5">
@@ -6817,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="T67" s="5">
-        <f t="shared" ref="T67" si="289">T65-T66</f>
+        <f t="shared" ref="T67" si="290">T65-T66</f>
         <v>0</v>
       </c>
       <c r="AA67" s="5">
@@ -6825,59 +6827,59 @@
         <v>0</v>
       </c>
       <c r="AB67" s="5">
-        <f t="shared" ref="AB67:AO67" si="290">AB65-AB66</f>
+        <f t="shared" ref="AB67:AO67" si="291">AB65-AB66</f>
         <v>0</v>
       </c>
       <c r="AC67" s="5">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>-178028</v>
       </c>
       <c r="AD67" s="5">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>-348535</v>
       </c>
       <c r="AE67" s="5">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>-539102</v>
       </c>
       <c r="AF67" s="5">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>-679948</v>
       </c>
       <c r="AG67" s="5">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>-796705</v>
       </c>
       <c r="AH67" s="5">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
       <c r="AI67" s="5">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
       <c r="AJ67" s="5">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
       <c r="AK67" s="5">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
       <c r="AL67" s="5">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
       <c r="AM67" s="5">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
       <c r="AN67" s="5">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
       <c r="AO67" s="5">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v>0</v>
       </c>
     </row>
@@ -6891,35 +6893,35 @@
         <v>107</v>
       </c>
       <c r="D69" s="17">
-        <f t="shared" ref="D69" si="291">D67/D70</f>
+        <f t="shared" ref="D69" si="292">D67/D70</f>
         <v>-1.7244358063468386</v>
       </c>
       <c r="E69" s="17">
-        <f t="shared" ref="E69" si="292">E67/E70</f>
+        <f t="shared" ref="E69" si="293">E67/E70</f>
         <v>-1.3100431154605219</v>
       </c>
       <c r="F69" s="17">
-        <f t="shared" ref="F69" si="293">F67/F70</f>
+        <f t="shared" ref="F69" si="294">F67/F70</f>
         <v>-1.0121101563988824</v>
       </c>
       <c r="G69" s="17" t="e">
-        <f t="shared" ref="G69" si="294">G67/G70</f>
+        <f t="shared" ref="G69" si="295">G67/G70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H69" s="40">
-        <f t="shared" ref="H69" si="295">H67/H70</f>
+        <f t="shared" ref="H69" si="296">H67/H70</f>
         <v>-0.69742540822139709</v>
       </c>
       <c r="I69" s="17">
-        <f t="shared" ref="I69" si="296">I67/I70</f>
+        <f t="shared" ref="I69" si="297">I67/I70</f>
         <v>-0.63724610956042149</v>
       </c>
       <c r="J69" s="17">
-        <f t="shared" ref="J69" si="297">J67/J70</f>
+        <f t="shared" ref="J69" si="298">J67/J70</f>
         <v>-0.51106410082935383</v>
       </c>
       <c r="K69" s="17" t="e">
-        <f t="shared" ref="K69" si="298">K67/K70</f>
+        <f t="shared" ref="K69" si="299">K67/K70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L69" s="40">
@@ -6927,7 +6929,7 @@
         <v>-0.52740002735708313</v>
       </c>
       <c r="M69" s="17">
-        <f t="shared" ref="M69" si="299">M67/M70</f>
+        <f t="shared" ref="M69" si="300">M67/M70</f>
         <v>-0.69986430285592227</v>
       </c>
       <c r="N69" s="17">
@@ -6935,7 +6937,7 @@
         <v>-0.62766020585065674</v>
       </c>
       <c r="O69" s="17" t="e">
-        <f t="shared" ref="O69" si="300">O67/O70</f>
+        <f t="shared" ref="O69" si="301">O67/O70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P69" s="40">
@@ -6947,7 +6949,7 @@
         <v>-0.6930728458612736</v>
       </c>
       <c r="R69" s="17">
-        <f t="shared" ref="R69" si="301">R67/R70</f>
+        <f t="shared" ref="R69" si="302">R67/R70</f>
         <v>-0.65060581215268287</v>
       </c>
       <c r="S69" s="17" t="e">
@@ -6955,7 +6957,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T69" s="17" t="e">
-        <f t="shared" ref="T69" si="302">T67/T70</f>
+        <f t="shared" ref="T69" si="303">T67/T70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA69" s="17" t="e">
@@ -6963,59 +6965,59 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB69" s="17" t="e">
-        <f t="shared" ref="AB69:AO69" si="303">AB67/AB70</f>
+        <f t="shared" ref="AB69:AO69" si="304">AB67/AB70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC69" s="17" t="e">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD69" s="17">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>-7.7715692235022003</v>
       </c>
       <c r="AE69" s="17">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>-3.8068680135298312</v>
       </c>
       <c r="AF69" s="17">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>-2.2644326995767186</v>
       </c>
       <c r="AG69" s="17">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>-2.4996235057885987</v>
       </c>
       <c r="AH69" s="17" t="e">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI69" s="17" t="e">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ69" s="17" t="e">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK69" s="17" t="e">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL69" s="17" t="e">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM69" s="17" t="e">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN69" s="17" t="e">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO69" s="17" t="e">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7386,35 +7388,35 @@
         <v>64</v>
       </c>
       <c r="D80" s="5">
-        <f t="shared" ref="D80" si="304">SUM(D75:D79)</f>
+        <f t="shared" ref="D80" si="305">SUM(D75:D79)</f>
         <v>0</v>
       </c>
       <c r="E80" s="5">
-        <f t="shared" ref="E80" si="305">SUM(E75:E79)</f>
+        <f t="shared" ref="E80" si="306">SUM(E75:E79)</f>
         <v>0</v>
       </c>
       <c r="F80" s="5">
-        <f t="shared" ref="F80" si="306">SUM(F75:F79)</f>
+        <f t="shared" ref="F80" si="307">SUM(F75:F79)</f>
         <v>0</v>
       </c>
       <c r="G80" s="5">
-        <f t="shared" ref="G80" si="307">SUM(G75:G79)</f>
+        <f t="shared" ref="G80" si="308">SUM(G75:G79)</f>
         <v>4300652</v>
       </c>
       <c r="H80" s="31">
-        <f t="shared" ref="H80" si="308">SUM(H75:H79)</f>
+        <f t="shared" ref="H80" si="309">SUM(H75:H79)</f>
         <v>4221336</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" ref="I80" si="309">SUM(I75:I79)</f>
+        <f t="shared" ref="I80" si="310">SUM(I75:I79)</f>
         <v>4508102</v>
       </c>
       <c r="J80" s="5">
-        <f t="shared" ref="J80" si="310">SUM(J75:J79)</f>
+        <f t="shared" ref="J80" si="311">SUM(J75:J79)</f>
         <v>4308257</v>
       </c>
       <c r="K80" s="5">
-        <f t="shared" ref="K80" si="311">SUM(K75:K79)</f>
+        <f t="shared" ref="K80" si="312">SUM(K75:K79)</f>
         <v>4598643</v>
       </c>
       <c r="L80" s="31">
@@ -7422,7 +7424,7 @@
         <v>4341733</v>
       </c>
       <c r="M80" s="5">
-        <f t="shared" ref="M80" si="312">SUM(M75:M79)</f>
+        <f t="shared" ref="M80" si="313">SUM(M75:M79)</f>
         <v>4503697</v>
       </c>
       <c r="N80" s="5">
@@ -7430,7 +7432,7 @@
         <v>4558904</v>
       </c>
       <c r="O80" s="5">
-        <f t="shared" ref="O80" si="313">SUM(O75:O79)</f>
+        <f t="shared" ref="O80" si="314">SUM(O75:O79)</f>
         <v>4984690</v>
       </c>
       <c r="P80" s="31">
@@ -7442,7 +7444,7 @@
         <v>4404951</v>
       </c>
       <c r="R80" s="5">
-        <f t="shared" ref="R80" si="314">SUM(R75:R79)</f>
+        <f t="shared" ref="R80" si="315">SUM(R75:R79)</f>
         <v>4312283</v>
       </c>
       <c r="S80" s="5">
@@ -7450,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="T80" s="5">
-        <f t="shared" ref="T80" si="315">SUM(T75:T79)</f>
+        <f t="shared" ref="T80" si="316">SUM(T75:T79)</f>
         <v>0</v>
       </c>
       <c r="AA80" s="5">
@@ -7458,59 +7460,59 @@
         <v>0</v>
       </c>
       <c r="AB80" s="5">
-        <f t="shared" ref="AB80:AO80" si="316">SUM(AB75:AB79)</f>
+        <f t="shared" ref="AB80:AO80" si="317">SUM(AB75:AB79)</f>
         <v>0</v>
       </c>
       <c r="AC80" s="5">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="AD80" s="5">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>665194</v>
       </c>
       <c r="AE80" s="5">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>4300652</v>
       </c>
       <c r="AF80" s="5">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>4598643</v>
       </c>
       <c r="AG80" s="5">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>4984690</v>
       </c>
       <c r="AH80" s="5">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="AI80" s="5">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="AJ80" s="5">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="AK80" s="5">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="AL80" s="5">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="AM80" s="5">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="AN80" s="5">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="AO80" s="5">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
     </row>
@@ -7527,7 +7529,7 @@
         <v>65</v>
       </c>
       <c r="G82" s="5">
-        <f>AE82</f>
+        <f t="shared" ref="G82:G88" si="318">AE82</f>
         <v>1165275</v>
       </c>
       <c r="H82" s="31">
@@ -7540,7 +7542,7 @@
         <v>1211858</v>
       </c>
       <c r="K82" s="5">
-        <f>AF82</f>
+        <f t="shared" ref="K82:K88" si="319">AF82</f>
         <v>1256207</v>
       </c>
       <c r="L82" s="31">
@@ -7553,7 +7555,7 @@
         <v>943081</v>
       </c>
       <c r="O82" s="5">
-        <f>AG82</f>
+        <f t="shared" ref="O82:O88" si="320">AG82</f>
         <v>1073023</v>
       </c>
       <c r="P82" s="31">
@@ -7583,7 +7585,7 @@
         <v>66</v>
       </c>
       <c r="G83" s="5">
-        <f>AE83</f>
+        <f t="shared" si="318"/>
         <v>68968</v>
       </c>
       <c r="H83" s="31">
@@ -7596,7 +7598,7 @@
         <v>94377</v>
       </c>
       <c r="K83" s="5">
-        <f>AF83</f>
+        <f t="shared" si="319"/>
         <v>105079</v>
       </c>
       <c r="L83" s="31">
@@ -7609,7 +7611,7 @@
         <v>145974</v>
       </c>
       <c r="O83" s="5">
-        <f>AG83</f>
+        <f t="shared" si="320"/>
         <v>160823</v>
       </c>
       <c r="P83" s="31">
@@ -7639,7 +7641,7 @@
         <v>67</v>
       </c>
       <c r="G84" s="5">
-        <f>AE84</f>
+        <f t="shared" si="318"/>
         <v>186818</v>
       </c>
       <c r="H84" s="31">
@@ -7652,7 +7654,7 @@
         <v>184057</v>
       </c>
       <c r="K84" s="5">
-        <f>AF84</f>
+        <f t="shared" si="319"/>
         <v>190356</v>
       </c>
       <c r="L84" s="31">
@@ -7665,7 +7667,7 @@
         <v>234678</v>
       </c>
       <c r="O84" s="5">
-        <f>AG84</f>
+        <f t="shared" si="320"/>
         <v>231266</v>
       </c>
       <c r="P84" s="31">
@@ -7695,7 +7697,7 @@
         <v>68</v>
       </c>
       <c r="G85" s="5">
-        <f>AE85</f>
+        <f t="shared" si="318"/>
         <v>8449</v>
       </c>
       <c r="H85" s="31">
@@ -7708,7 +7710,7 @@
         <v>8449</v>
       </c>
       <c r="K85" s="5">
-        <f>AF85</f>
+        <f t="shared" si="319"/>
         <v>8449</v>
       </c>
       <c r="L85" s="31">
@@ -7721,7 +7723,7 @@
         <v>649092</v>
       </c>
       <c r="O85" s="5">
-        <f>AG85</f>
+        <f t="shared" si="320"/>
         <v>657370</v>
       </c>
       <c r="P85" s="31">
@@ -7751,7 +7753,7 @@
         <v>69</v>
       </c>
       <c r="G86" s="5">
-        <f>AE86</f>
+        <f t="shared" si="318"/>
         <v>16091</v>
       </c>
       <c r="H86" s="31">
@@ -7764,7 +7766,7 @@
         <v>26167</v>
       </c>
       <c r="K86" s="5">
-        <f>AF86</f>
+        <f t="shared" si="319"/>
         <v>37141</v>
       </c>
       <c r="L86" s="31">
@@ -7777,7 +7779,7 @@
         <v>196165</v>
       </c>
       <c r="O86" s="5">
-        <f>AG86</f>
+        <f t="shared" si="320"/>
         <v>186013</v>
       </c>
       <c r="P86" s="31">
@@ -7807,7 +7809,7 @@
         <v>70</v>
       </c>
       <c r="G87" s="5">
-        <f>AE87</f>
+        <f t="shared" si="318"/>
         <v>86164</v>
       </c>
       <c r="H87" s="31">
@@ -7820,7 +7822,7 @@
         <v>101551</v>
       </c>
       <c r="K87" s="5">
-        <f>AF87</f>
+        <f t="shared" si="319"/>
         <v>124517</v>
       </c>
       <c r="L87" s="31">
@@ -7833,7 +7835,7 @@
         <v>133939</v>
       </c>
       <c r="O87" s="5">
-        <f>AG87</f>
+        <f t="shared" si="320"/>
         <v>145286</v>
       </c>
       <c r="P87" s="31">
@@ -7863,7 +7865,7 @@
         <v>71</v>
       </c>
       <c r="G88" s="5">
-        <f>AE88</f>
+        <f t="shared" si="318"/>
         <v>89322</v>
       </c>
       <c r="H88" s="32">
@@ -7876,7 +7878,7 @@
         <v>228755</v>
       </c>
       <c r="K88" s="5">
-        <f>AF88</f>
+        <f t="shared" si="319"/>
         <v>329306</v>
       </c>
       <c r="L88" s="32">
@@ -7889,7 +7891,7 @@
         <v>293855</v>
       </c>
       <c r="O88" s="5">
-        <f>AG88</f>
+        <f t="shared" si="320"/>
         <v>283851</v>
       </c>
       <c r="P88" s="32">
@@ -7919,35 +7921,35 @@
         <v>72</v>
       </c>
       <c r="D89" s="11">
-        <f t="shared" ref="D89" si="317">SUM(D82:D88)</f>
+        <f t="shared" ref="D89" si="321">SUM(D82:D88)</f>
         <v>0</v>
       </c>
       <c r="E89" s="11">
-        <f t="shared" ref="E89" si="318">SUM(E82:E88)</f>
+        <f t="shared" ref="E89" si="322">SUM(E82:E88)</f>
         <v>0</v>
       </c>
       <c r="F89" s="11">
-        <f t="shared" ref="F89" si="319">SUM(F82:F88)</f>
+        <f t="shared" ref="F89" si="323">SUM(F82:F88)</f>
         <v>0</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" ref="G89" si="320">SUM(G82:G88)</f>
+        <f t="shared" ref="G89" si="324">SUM(G82:G88)</f>
         <v>1621087</v>
       </c>
       <c r="H89" s="39">
-        <f t="shared" ref="H89" si="321">SUM(H82:H88)</f>
+        <f t="shared" ref="H89" si="325">SUM(H82:H88)</f>
         <v>1707674</v>
       </c>
       <c r="I89" s="11">
-        <f t="shared" ref="I89" si="322">SUM(I82:I88)</f>
+        <f t="shared" ref="I89" si="326">SUM(I82:I88)</f>
         <v>1524314</v>
       </c>
       <c r="J89" s="11">
-        <f t="shared" ref="J89" si="323">SUM(J82:J88)</f>
+        <f t="shared" ref="J89" si="327">SUM(J82:J88)</f>
         <v>1855214</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" ref="K89" si="324">SUM(K82:K88)</f>
+        <f t="shared" ref="K89" si="328">SUM(K82:K88)</f>
         <v>2051055</v>
       </c>
       <c r="L89" s="39">
@@ -7955,7 +7957,7 @@
         <v>2680966</v>
       </c>
       <c r="M89" s="11">
-        <f t="shared" ref="M89" si="325">SUM(M82:M88)</f>
+        <f t="shared" ref="M89" si="329">SUM(M82:M88)</f>
         <v>2560418</v>
       </c>
       <c r="N89" s="11">
@@ -7963,7 +7965,7 @@
         <v>2596784</v>
       </c>
       <c r="O89" s="11">
-        <f t="shared" ref="O89" si="326">SUM(O82:O88)</f>
+        <f t="shared" ref="O89" si="330">SUM(O82:O88)</f>
         <v>2737632</v>
       </c>
       <c r="P89" s="39">
@@ -7975,7 +7977,7 @@
         <v>3104865</v>
       </c>
       <c r="R89" s="11">
-        <f t="shared" ref="R89" si="327">SUM(R82:R88)</f>
+        <f t="shared" ref="R89" si="331">SUM(R82:R88)</f>
         <v>2952096</v>
       </c>
       <c r="S89" s="11">
@@ -7983,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="T89" s="11">
-        <f t="shared" ref="T89" si="328">SUM(T82:T88)</f>
+        <f t="shared" ref="T89" si="332">SUM(T82:T88)</f>
         <v>0</v>
       </c>
       <c r="AA89" s="11">
@@ -7991,59 +7993,59 @@
         <v>0</v>
       </c>
       <c r="AB89" s="11">
-        <f t="shared" ref="AB89:AO89" si="329">SUM(AB82:AB88)</f>
+        <f t="shared" ref="AB89:AO89" si="333">SUM(AB82:AB88)</f>
         <v>0</v>
       </c>
       <c r="AC89" s="11">
-        <f t="shared" si="329"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AD89" s="11">
-        <f t="shared" si="329"/>
+        <f t="shared" si="333"/>
         <v>347526</v>
       </c>
       <c r="AE89" s="11">
-        <f t="shared" si="329"/>
+        <f t="shared" si="333"/>
         <v>1621087</v>
       </c>
       <c r="AF89" s="11">
-        <f t="shared" si="329"/>
+        <f t="shared" si="333"/>
         <v>2051055</v>
       </c>
       <c r="AG89" s="11">
-        <f t="shared" si="329"/>
+        <f t="shared" si="333"/>
         <v>2737632</v>
       </c>
       <c r="AH89" s="11">
-        <f t="shared" si="329"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AI89" s="11">
-        <f t="shared" si="329"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AJ89" s="11">
-        <f t="shared" si="329"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AK89" s="11">
-        <f t="shared" si="329"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AL89" s="11">
-        <f t="shared" si="329"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AM89" s="11">
-        <f t="shared" si="329"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AN89" s="11">
-        <f t="shared" si="329"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
       <c r="AO89" s="11">
-        <f t="shared" si="329"/>
+        <f t="shared" si="333"/>
         <v>0</v>
       </c>
     </row>
@@ -8052,43 +8054,43 @@
         <v>73</v>
       </c>
       <c r="D90" s="12">
-        <f t="shared" ref="D90" si="330">D89+D80</f>
+        <f t="shared" ref="D90" si="334">D89+D80</f>
         <v>0</v>
       </c>
       <c r="E90" s="12">
-        <f t="shared" ref="E90" si="331">E89+E80</f>
+        <f t="shared" ref="E90" si="335">E89+E80</f>
         <v>0</v>
       </c>
       <c r="F90" s="12">
-        <f t="shared" ref="F90" si="332">F89+F80</f>
+        <f t="shared" ref="F90" si="336">F89+F80</f>
         <v>0</v>
       </c>
       <c r="G90" s="12">
-        <f t="shared" ref="G90" si="333">G89+G80</f>
+        <f t="shared" ref="G90" si="337">G89+G80</f>
         <v>5921739</v>
       </c>
       <c r="H90" s="35">
-        <f t="shared" ref="H90" si="334">H89+H80</f>
+        <f t="shared" ref="H90" si="338">H89+H80</f>
         <v>5929010</v>
       </c>
       <c r="I90" s="12">
-        <f t="shared" ref="I90" si="335">I89+I80</f>
+        <f t="shared" ref="I90" si="339">I89+I80</f>
         <v>6032416</v>
       </c>
       <c r="J90" s="12">
-        <f t="shared" ref="J90" si="336">J89+J80</f>
+        <f t="shared" ref="J90" si="340">J89+J80</f>
         <v>6163471</v>
       </c>
       <c r="K90" s="12">
-        <f t="shared" ref="K90" si="337">K89+K80</f>
+        <f t="shared" ref="K90" si="341">K89+K80</f>
         <v>6649698</v>
       </c>
       <c r="L90" s="35">
         <f>L89+L80</f>
         <v>7022699</v>
       </c>
-      <c r="M90" s="47">
-        <f t="shared" ref="M90" si="338">M89+M80</f>
+      <c r="M90" s="12">
+        <f t="shared" ref="M90" si="342">M89+M80</f>
         <v>7064115</v>
       </c>
       <c r="N90" s="12">
@@ -8096,7 +8098,7 @@
         <v>7155688</v>
       </c>
       <c r="O90" s="12">
-        <f t="shared" ref="O90" si="339">O89+O80</f>
+        <f t="shared" ref="O90" si="343">O89+O80</f>
         <v>7722322</v>
       </c>
       <c r="P90" s="35">
@@ -8108,7 +8110,7 @@
         <v>7509816</v>
       </c>
       <c r="R90" s="12">
-        <f t="shared" ref="R90" si="340">R89+R80</f>
+        <f t="shared" ref="R90" si="344">R89+R80</f>
         <v>7264379</v>
       </c>
       <c r="S90" s="12">
@@ -8116,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="T90" s="12">
-        <f t="shared" ref="T90" si="341">T89+T80</f>
+        <f t="shared" ref="T90" si="345">T89+T80</f>
         <v>0</v>
       </c>
       <c r="AA90" s="12">
@@ -8124,59 +8126,59 @@
         <v>0</v>
       </c>
       <c r="AB90" s="12">
-        <f t="shared" ref="AB90:AO90" si="342">AB89+AB80</f>
+        <f t="shared" ref="AB90:AO90" si="346">AB89+AB80</f>
         <v>0</v>
       </c>
       <c r="AC90" s="12">
-        <f t="shared" si="342"/>
+        <f t="shared" si="346"/>
         <v>0</v>
       </c>
       <c r="AD90" s="12">
-        <f t="shared" si="342"/>
+        <f t="shared" si="346"/>
         <v>1012720</v>
       </c>
       <c r="AE90" s="12">
-        <f t="shared" si="342"/>
+        <f t="shared" si="346"/>
         <v>5921739</v>
       </c>
       <c r="AF90" s="12">
-        <f t="shared" si="342"/>
+        <f t="shared" si="346"/>
         <v>6649698</v>
       </c>
       <c r="AG90" s="12">
-        <f t="shared" si="342"/>
+        <f t="shared" si="346"/>
         <v>7722322</v>
       </c>
       <c r="AH90" s="12">
-        <f t="shared" si="342"/>
+        <f t="shared" si="346"/>
         <v>0</v>
       </c>
       <c r="AI90" s="12">
-        <f t="shared" si="342"/>
+        <f t="shared" si="346"/>
         <v>0</v>
       </c>
       <c r="AJ90" s="12">
-        <f t="shared" si="342"/>
+        <f t="shared" si="346"/>
         <v>0</v>
       </c>
       <c r="AK90" s="12">
-        <f t="shared" si="342"/>
+        <f t="shared" si="346"/>
         <v>0</v>
       </c>
       <c r="AL90" s="12">
-        <f t="shared" si="342"/>
+        <f t="shared" si="346"/>
         <v>0</v>
       </c>
       <c r="AM90" s="12">
-        <f t="shared" si="342"/>
+        <f t="shared" si="346"/>
         <v>0</v>
       </c>
       <c r="AN90" s="12">
-        <f t="shared" si="342"/>
+        <f t="shared" si="346"/>
         <v>0</v>
       </c>
       <c r="AO90" s="12">
-        <f t="shared" si="342"/>
+        <f t="shared" si="346"/>
         <v>0</v>
       </c>
     </row>
@@ -8417,35 +8419,35 @@
         <v>79</v>
       </c>
       <c r="D96" s="5">
-        <f t="shared" ref="D96" si="343">SUM(D92:D95)</f>
+        <f t="shared" ref="D96" si="347">SUM(D92:D95)</f>
         <v>0</v>
       </c>
       <c r="E96" s="5">
-        <f t="shared" ref="E96" si="344">SUM(E92:E95)</f>
+        <f t="shared" ref="E96" si="348">SUM(E92:E95)</f>
         <v>0</v>
       </c>
       <c r="F96" s="5">
-        <f t="shared" ref="F96" si="345">SUM(F92:F95)</f>
+        <f t="shared" ref="F96" si="349">SUM(F92:F95)</f>
         <v>0</v>
       </c>
       <c r="G96" s="5">
-        <f t="shared" ref="G96" si="346">SUM(G92:G95)</f>
+        <f t="shared" ref="G96" si="350">SUM(G92:G95)</f>
         <v>789264</v>
       </c>
       <c r="H96" s="31">
-        <f t="shared" ref="H96" si="347">SUM(H92:H95)</f>
+        <f t="shared" ref="H96" si="351">SUM(H92:H95)</f>
         <v>777358</v>
       </c>
       <c r="I96" s="5">
-        <f t="shared" ref="I96" si="348">SUM(I92:I95)</f>
+        <f t="shared" ref="I96" si="352">SUM(I92:I95)</f>
         <v>875738</v>
       </c>
       <c r="J96" s="5">
-        <f t="shared" ref="J96" si="349">SUM(J92:J95)</f>
+        <f t="shared" ref="J96" si="353">SUM(J92:J95)</f>
         <v>958735</v>
       </c>
       <c r="K96" s="5">
-        <f t="shared" ref="K96" si="350">SUM(K92:K95)</f>
+        <f t="shared" ref="K96" si="354">SUM(K92:K95)</f>
         <v>1397093</v>
       </c>
       <c r="L96" s="31">
@@ -8453,7 +8455,7 @@
         <v>1363718</v>
       </c>
       <c r="M96" s="5">
-        <f t="shared" ref="M96" si="351">SUM(M92:M95)</f>
+        <f t="shared" ref="M96" si="355">SUM(M92:M95)</f>
         <v>1401436</v>
       </c>
       <c r="N96" s="5">
@@ -8461,7 +8463,7 @@
         <v>1479042</v>
       </c>
       <c r="O96" s="5">
-        <f t="shared" ref="O96" si="352">SUM(O92:O95)</f>
+        <f t="shared" ref="O96" si="356">SUM(O92:O95)</f>
         <v>1993517</v>
       </c>
       <c r="P96" s="31">
@@ -8473,7 +8475,7 @@
         <v>1913312</v>
       </c>
       <c r="R96" s="5">
-        <f t="shared" ref="R96" si="353">SUM(R92:R95)</f>
+        <f t="shared" ref="R96" si="357">SUM(R92:R95)</f>
         <v>2032672</v>
       </c>
       <c r="S96" s="5">
@@ -8481,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="T96" s="5">
-        <f t="shared" ref="T96" si="354">SUM(T92:T95)</f>
+        <f t="shared" ref="T96" si="358">SUM(T92:T95)</f>
         <v>0</v>
       </c>
       <c r="AA96" s="5">
@@ -8489,59 +8491,59 @@
         <v>0</v>
       </c>
       <c r="AB96" s="5">
-        <f t="shared" ref="AB96:AO96" si="355">SUM(AB92:AB95)</f>
+        <f t="shared" ref="AB96:AO96" si="359">SUM(AB92:AB95)</f>
         <v>0</v>
       </c>
       <c r="AC96" s="5">
-        <f t="shared" si="355"/>
+        <f t="shared" si="359"/>
         <v>0</v>
       </c>
       <c r="AD96" s="5">
-        <f t="shared" si="355"/>
+        <f t="shared" si="359"/>
         <v>416455</v>
       </c>
       <c r="AE96" s="5">
-        <f t="shared" si="355"/>
+        <f t="shared" si="359"/>
         <v>789264</v>
       </c>
       <c r="AF96" s="5">
-        <f t="shared" si="355"/>
+        <f t="shared" si="359"/>
         <v>1397093</v>
       </c>
       <c r="AG96" s="5">
-        <f t="shared" si="355"/>
+        <f t="shared" si="359"/>
         <v>1993517</v>
       </c>
       <c r="AH96" s="5">
-        <f t="shared" si="355"/>
+        <f t="shared" si="359"/>
         <v>0</v>
       </c>
       <c r="AI96" s="5">
-        <f t="shared" si="355"/>
+        <f t="shared" si="359"/>
         <v>0</v>
       </c>
       <c r="AJ96" s="5">
-        <f t="shared" si="355"/>
+        <f t="shared" si="359"/>
         <v>0</v>
       </c>
       <c r="AK96" s="5">
-        <f t="shared" si="355"/>
+        <f t="shared" si="359"/>
         <v>0</v>
       </c>
       <c r="AL96" s="5">
-        <f t="shared" si="355"/>
+        <f t="shared" si="359"/>
         <v>0</v>
       </c>
       <c r="AM96" s="5">
-        <f t="shared" si="355"/>
+        <f t="shared" si="359"/>
         <v>0</v>
       </c>
       <c r="AN96" s="5">
-        <f t="shared" si="355"/>
+        <f t="shared" si="359"/>
         <v>0</v>
       </c>
       <c r="AO96" s="5">
-        <f t="shared" si="355"/>
+        <f t="shared" si="359"/>
         <v>0</v>
       </c>
     </row>
@@ -8726,35 +8728,35 @@
         <v>83</v>
       </c>
       <c r="D101" s="11">
-        <f t="shared" ref="D101" si="356">SUM(D98:D100)</f>
+        <f t="shared" ref="D101" si="360">SUM(D98:D100)</f>
         <v>0</v>
       </c>
       <c r="E101" s="11">
-        <f t="shared" ref="E101" si="357">SUM(E98:E100)</f>
+        <f t="shared" ref="E101" si="361">SUM(E98:E100)</f>
         <v>0</v>
       </c>
       <c r="F101" s="11">
-        <f t="shared" ref="F101" si="358">SUM(F98:F100)</f>
+        <f t="shared" ref="F101" si="362">SUM(F98:F100)</f>
         <v>0</v>
       </c>
       <c r="G101" s="11">
-        <f t="shared" ref="G101" si="359">SUM(G98:G100)</f>
+        <f t="shared" ref="G101" si="363">SUM(G98:G100)</f>
         <v>196004</v>
       </c>
       <c r="H101" s="39">
-        <f t="shared" ref="H101" si="360">SUM(H98:H100)</f>
+        <f t="shared" ref="H101" si="364">SUM(H98:H100)</f>
         <v>193691</v>
       </c>
       <c r="I101" s="11">
-        <f t="shared" ref="I101" si="361">SUM(I98:I100)</f>
+        <f t="shared" ref="I101" si="365">SUM(I98:I100)</f>
         <v>191713</v>
       </c>
       <c r="J101" s="11">
-        <f t="shared" ref="J101" si="362">SUM(J98:J100)</f>
+        <f t="shared" ref="J101" si="366">SUM(J98:J100)</f>
         <v>198054</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" ref="K101" si="363">SUM(K98:K100)</f>
+        <f t="shared" ref="K101" si="367">SUM(K98:K100)</f>
         <v>203560</v>
       </c>
       <c r="L101" s="39">
@@ -8762,7 +8764,7 @@
         <v>200987</v>
       </c>
       <c r="M101" s="11">
-        <f t="shared" ref="M101" si="364">SUM(M98:M100)</f>
+        <f t="shared" ref="M101" si="368">SUM(M98:M100)</f>
         <v>236356</v>
       </c>
       <c r="N101" s="11">
@@ -8770,7 +8772,7 @@
         <v>253375</v>
       </c>
       <c r="O101" s="11">
-        <f t="shared" ref="O101" si="365">SUM(O98:O100)</f>
+        <f t="shared" ref="O101" si="369">SUM(O98:O100)</f>
         <v>260190</v>
       </c>
       <c r="P101" s="39">
@@ -8782,7 +8784,7 @@
         <v>298277</v>
       </c>
       <c r="R101" s="11">
-        <f t="shared" ref="R101" si="366">SUM(R98:R100)</f>
+        <f t="shared" ref="R101" si="370">SUM(R98:R100)</f>
         <v>290940</v>
       </c>
       <c r="S101" s="11">
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="T101" s="11">
-        <f t="shared" ref="T101" si="367">SUM(T98:T100)</f>
+        <f t="shared" ref="T101" si="371">SUM(T98:T100)</f>
         <v>0</v>
       </c>
       <c r="AA101" s="11">
@@ -8798,59 +8800,59 @@
         <v>0</v>
       </c>
       <c r="AB101" s="11">
-        <f t="shared" ref="AB101:AO101" si="368">SUM(AB98:AB100)</f>
+        <f t="shared" ref="AB101:AO101" si="372">SUM(AB98:AB100)</f>
         <v>0</v>
       </c>
       <c r="AC101" s="11">
-        <f t="shared" si="368"/>
+        <f t="shared" si="372"/>
         <v>0</v>
       </c>
       <c r="AD101" s="11">
-        <f t="shared" si="368"/>
+        <f t="shared" si="372"/>
         <v>204548</v>
       </c>
       <c r="AE101" s="11">
-        <f t="shared" si="368"/>
+        <f t="shared" si="372"/>
         <v>196004</v>
       </c>
       <c r="AF101" s="11">
-        <f t="shared" si="368"/>
+        <f t="shared" si="372"/>
         <v>203560</v>
       </c>
       <c r="AG101" s="11">
-        <f t="shared" si="368"/>
+        <f t="shared" si="372"/>
         <v>260190</v>
       </c>
       <c r="AH101" s="11">
-        <f t="shared" si="368"/>
+        <f t="shared" si="372"/>
         <v>0</v>
       </c>
       <c r="AI101" s="11">
-        <f t="shared" si="368"/>
+        <f t="shared" si="372"/>
         <v>0</v>
       </c>
       <c r="AJ101" s="11">
-        <f t="shared" si="368"/>
+        <f t="shared" si="372"/>
         <v>0</v>
       </c>
       <c r="AK101" s="11">
-        <f t="shared" si="368"/>
+        <f t="shared" si="372"/>
         <v>0</v>
       </c>
       <c r="AL101" s="11">
-        <f t="shared" si="368"/>
+        <f t="shared" si="372"/>
         <v>0</v>
       </c>
       <c r="AM101" s="11">
-        <f t="shared" si="368"/>
+        <f t="shared" si="372"/>
         <v>0</v>
       </c>
       <c r="AN101" s="11">
-        <f t="shared" si="368"/>
+        <f t="shared" si="372"/>
         <v>0</v>
       </c>
       <c r="AO101" s="11">
-        <f t="shared" si="368"/>
+        <f t="shared" si="372"/>
         <v>0</v>
       </c>
     </row>
@@ -8859,35 +8861,35 @@
         <v>84</v>
       </c>
       <c r="D102" s="12">
-        <f t="shared" ref="D102" si="369">D101+D96</f>
+        <f t="shared" ref="D102" si="373">D101+D96</f>
         <v>0</v>
       </c>
       <c r="E102" s="12">
-        <f t="shared" ref="E102" si="370">E101+E96</f>
+        <f t="shared" ref="E102" si="374">E101+E96</f>
         <v>0</v>
       </c>
       <c r="F102" s="12">
-        <f t="shared" ref="F102" si="371">F101+F96</f>
+        <f t="shared" ref="F102" si="375">F101+F96</f>
         <v>0</v>
       </c>
       <c r="G102" s="12">
-        <f t="shared" ref="G102" si="372">G101+G96</f>
+        <f t="shared" ref="G102" si="376">G101+G96</f>
         <v>985268</v>
       </c>
       <c r="H102" s="35">
-        <f t="shared" ref="H102" si="373">H101+H96</f>
+        <f t="shared" ref="H102" si="377">H101+H96</f>
         <v>971049</v>
       </c>
       <c r="I102" s="12">
-        <f t="shared" ref="I102" si="374">I101+I96</f>
+        <f t="shared" ref="I102" si="378">I101+I96</f>
         <v>1067451</v>
       </c>
       <c r="J102" s="12">
-        <f t="shared" ref="J102" si="375">J101+J96</f>
+        <f t="shared" ref="J102" si="379">J101+J96</f>
         <v>1156789</v>
       </c>
       <c r="K102" s="12">
-        <f t="shared" ref="K102" si="376">K101+K96</f>
+        <f t="shared" ref="K102" si="380">K101+K96</f>
         <v>1600653</v>
       </c>
       <c r="L102" s="35">
@@ -8895,7 +8897,7 @@
         <v>1564705</v>
       </c>
       <c r="M102" s="12">
-        <f t="shared" ref="M102" si="377">M101+M96</f>
+        <f t="shared" ref="M102" si="381">M101+M96</f>
         <v>1637792</v>
       </c>
       <c r="N102" s="12">
@@ -8903,7 +8905,7 @@
         <v>1732417</v>
       </c>
       <c r="O102" s="12">
-        <f t="shared" ref="O102" si="378">O101+O96</f>
+        <f t="shared" ref="O102" si="382">O101+O96</f>
         <v>2253707</v>
       </c>
       <c r="P102" s="35">
@@ -8915,7 +8917,7 @@
         <v>2211589</v>
       </c>
       <c r="R102" s="12">
-        <f t="shared" ref="R102" si="379">R101+R96</f>
+        <f t="shared" ref="R102" si="383">R101+R96</f>
         <v>2323612</v>
       </c>
       <c r="S102" s="12">
@@ -8923,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="T102" s="12">
-        <f t="shared" ref="T102" si="380">T101+T96</f>
+        <f t="shared" ref="T102" si="384">T101+T96</f>
         <v>0</v>
       </c>
       <c r="AA102" s="12">
@@ -8931,59 +8933,59 @@
         <v>0</v>
       </c>
       <c r="AB102" s="12">
-        <f t="shared" ref="AB102:AO102" si="381">AB101+AB96</f>
+        <f t="shared" ref="AB102:AO102" si="385">AB101+AB96</f>
         <v>0</v>
       </c>
       <c r="AC102" s="12">
-        <f t="shared" si="381"/>
+        <f t="shared" si="385"/>
         <v>0</v>
       </c>
       <c r="AD102" s="12">
-        <f t="shared" si="381"/>
+        <f t="shared" si="385"/>
         <v>621003</v>
       </c>
       <c r="AE102" s="12">
-        <f t="shared" si="381"/>
+        <f t="shared" si="385"/>
         <v>985268</v>
       </c>
       <c r="AF102" s="12">
-        <f t="shared" si="381"/>
+        <f t="shared" si="385"/>
         <v>1600653</v>
       </c>
       <c r="AG102" s="12">
-        <f t="shared" si="381"/>
+        <f t="shared" si="385"/>
         <v>2253707</v>
       </c>
       <c r="AH102" s="12">
-        <f t="shared" si="381"/>
+        <f t="shared" si="385"/>
         <v>0</v>
       </c>
       <c r="AI102" s="12">
-        <f t="shared" si="381"/>
+        <f t="shared" si="385"/>
         <v>0</v>
       </c>
       <c r="AJ102" s="12">
-        <f t="shared" si="381"/>
+        <f t="shared" si="385"/>
         <v>0</v>
       </c>
       <c r="AK102" s="12">
-        <f t="shared" si="381"/>
+        <f t="shared" si="385"/>
         <v>0</v>
       </c>
       <c r="AL102" s="12">
-        <f t="shared" si="381"/>
+        <f t="shared" si="385"/>
         <v>0</v>
       </c>
       <c r="AM102" s="12">
-        <f t="shared" si="381"/>
+        <f t="shared" si="385"/>
         <v>0</v>
       </c>
       <c r="AN102" s="12">
-        <f t="shared" si="381"/>
+        <f t="shared" si="385"/>
         <v>0</v>
       </c>
       <c r="AO102" s="12">
-        <f t="shared" si="381"/>
+        <f t="shared" si="385"/>
         <v>0</v>
       </c>
     </row>
@@ -9378,35 +9380,35 @@
         <v>90</v>
       </c>
       <c r="D111" s="5">
-        <f t="shared" ref="D111" si="382">SUM(D105:D110)</f>
+        <f t="shared" ref="D111" si="386">SUM(D105:D110)</f>
         <v>0</v>
       </c>
       <c r="E111" s="5">
-        <f t="shared" ref="E111" si="383">SUM(E105:E110)</f>
+        <f t="shared" ref="E111" si="387">SUM(E105:E110)</f>
         <v>0</v>
       </c>
       <c r="F111" s="5">
-        <f t="shared" ref="F111:G111" si="384">SUM(F105:F110)</f>
+        <f t="shared" ref="F111:G111" si="388">SUM(F105:F110)</f>
         <v>0</v>
       </c>
       <c r="G111" s="5">
-        <f t="shared" si="384"/>
+        <f t="shared" si="388"/>
         <v>4936471</v>
       </c>
       <c r="H111" s="31">
-        <f t="shared" ref="H111" si="385">SUM(H105:H110)</f>
+        <f t="shared" ref="H111" si="389">SUM(H105:H110)</f>
         <v>4958321</v>
       </c>
       <c r="I111" s="5">
-        <f t="shared" ref="I111" si="386">SUM(I105:I110)</f>
+        <f t="shared" ref="I111" si="390">SUM(I105:I110)</f>
         <v>4964965</v>
       </c>
       <c r="J111" s="5">
-        <f t="shared" ref="J111" si="387">SUM(J105:J110)</f>
+        <f t="shared" ref="J111" si="391">SUM(J105:J110)</f>
         <v>5006682</v>
       </c>
       <c r="K111" s="5">
-        <f t="shared" ref="K111" si="388">SUM(K105:K110)</f>
+        <f t="shared" ref="K111" si="392">SUM(K105:K110)</f>
         <v>5049045</v>
       </c>
       <c r="L111" s="31">
@@ -9414,7 +9416,7 @@
         <v>5457994</v>
       </c>
       <c r="M111" s="5">
-        <f t="shared" ref="M111" si="389">SUM(M105:M110)</f>
+        <f t="shared" ref="M111" si="393">SUM(M105:M110)</f>
         <v>5426323</v>
       </c>
       <c r="N111" s="5">
@@ -9422,7 +9424,7 @@
         <v>5410777</v>
       </c>
       <c r="O111" s="5">
-        <f t="shared" ref="O111" si="390">SUM(O105:O110)</f>
+        <f t="shared" ref="O111" si="394">SUM(O105:O110)</f>
         <v>5456436</v>
       </c>
       <c r="P111" s="31">
@@ -9434,7 +9436,7 @@
         <v>5286938</v>
       </c>
       <c r="R111" s="5">
-        <f t="shared" ref="R111" si="391">SUM(R105:R110)</f>
+        <f t="shared" ref="R111" si="395">SUM(R105:R110)</f>
         <v>4929921</v>
       </c>
       <c r="S111" s="5">
@@ -9442,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="T111" s="5">
-        <f t="shared" ref="T111" si="392">SUM(T105:T110)</f>
+        <f t="shared" ref="T111" si="396">SUM(T105:T110)</f>
         <v>0</v>
       </c>
       <c r="AA111" s="5">
@@ -9450,59 +9452,59 @@
         <v>0</v>
       </c>
       <c r="AB111" s="5">
-        <f t="shared" ref="AB111:AO111" si="393">SUM(AB105:AB110)</f>
+        <f t="shared" ref="AB111:AO111" si="397">SUM(AB105:AB110)</f>
         <v>0</v>
       </c>
       <c r="AC111" s="5">
-        <f t="shared" si="393"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="AD111" s="5">
-        <f t="shared" si="393"/>
+        <f t="shared" si="397"/>
         <v>-544757</v>
       </c>
       <c r="AE111" s="5">
-        <f t="shared" si="393"/>
+        <f t="shared" si="397"/>
         <v>4936471</v>
       </c>
       <c r="AF111" s="5">
-        <f t="shared" si="393"/>
+        <f t="shared" si="397"/>
         <v>5049045</v>
       </c>
       <c r="AG111" s="5">
-        <f t="shared" si="393"/>
+        <f t="shared" si="397"/>
         <v>5456436</v>
       </c>
       <c r="AH111" s="5">
-        <f t="shared" si="393"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="AI111" s="5">
-        <f t="shared" si="393"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="AJ111" s="5">
-        <f t="shared" si="393"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="AK111" s="5">
-        <f t="shared" si="393"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="AL111" s="5">
-        <f t="shared" si="393"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="AM111" s="5">
-        <f t="shared" si="393"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="AN111" s="5">
-        <f t="shared" si="393"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
       <c r="AO111" s="5">
-        <f t="shared" si="393"/>
+        <f t="shared" si="397"/>
         <v>0</v>
       </c>
     </row>
@@ -9562,35 +9564,35 @@
         <v>92</v>
       </c>
       <c r="D113" s="15">
-        <f t="shared" ref="D113" si="394">D111+D112</f>
+        <f t="shared" ref="D113" si="398">D111+D112</f>
         <v>0</v>
       </c>
       <c r="E113" s="15">
-        <f t="shared" ref="E113" si="395">E111+E112</f>
+        <f t="shared" ref="E113" si="399">E111+E112</f>
         <v>0</v>
       </c>
       <c r="F113" s="15">
-        <f t="shared" ref="F113" si="396">F111+F112</f>
+        <f t="shared" ref="F113" si="400">F111+F112</f>
         <v>0</v>
       </c>
       <c r="G113" s="15">
-        <f t="shared" ref="G113" si="397">G111+G112</f>
+        <f t="shared" ref="G113" si="401">G111+G112</f>
         <v>4936471</v>
       </c>
       <c r="H113" s="42">
-        <f t="shared" ref="H113" si="398">H111+H112</f>
+        <f t="shared" ref="H113" si="402">H111+H112</f>
         <v>4958321</v>
       </c>
       <c r="I113" s="15">
-        <f t="shared" ref="I113" si="399">I111+I112</f>
+        <f t="shared" ref="I113" si="403">I111+I112</f>
         <v>4964965</v>
       </c>
       <c r="J113" s="15">
-        <f t="shared" ref="J113" si="400">J111+J112</f>
+        <f t="shared" ref="J113" si="404">J111+J112</f>
         <v>5006682</v>
       </c>
       <c r="K113" s="15">
-        <f t="shared" ref="K113" si="401">K111+K112</f>
+        <f t="shared" ref="K113" si="405">K111+K112</f>
         <v>5049045</v>
       </c>
       <c r="L113" s="42">
@@ -9598,7 +9600,7 @@
         <v>5457994</v>
       </c>
       <c r="M113" s="15">
-        <f t="shared" ref="M113" si="402">M111+M112</f>
+        <f t="shared" ref="M113" si="406">M111+M112</f>
         <v>5426323</v>
       </c>
       <c r="N113" s="15">
@@ -9606,7 +9608,7 @@
         <v>5423271</v>
       </c>
       <c r="O113" s="15">
-        <f t="shared" ref="O113" si="403">O111+O112</f>
+        <f t="shared" ref="O113" si="407">O111+O112</f>
         <v>5468615</v>
       </c>
       <c r="P113" s="42">
@@ -9618,7 +9620,7 @@
         <v>5298227</v>
       </c>
       <c r="R113" s="15">
-        <f t="shared" ref="R113" si="404">R111+R112</f>
+        <f t="shared" ref="R113" si="408">R111+R112</f>
         <v>4940767</v>
       </c>
       <c r="S113" s="15">
@@ -9626,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="T113" s="15">
-        <f t="shared" ref="T113" si="405">T111+T112</f>
+        <f t="shared" ref="T113" si="409">T111+T112</f>
         <v>0</v>
       </c>
       <c r="AA113" s="15">
@@ -9634,59 +9636,59 @@
         <v>0</v>
       </c>
       <c r="AB113" s="15">
-        <f t="shared" ref="AB113:AO113" si="406">AB111+AB112</f>
+        <f t="shared" ref="AB113:AO113" si="410">AB111+AB112</f>
         <v>0</v>
       </c>
       <c r="AC113" s="15">
-        <f t="shared" si="406"/>
+        <f t="shared" si="410"/>
         <v>0</v>
       </c>
       <c r="AD113" s="15">
-        <f t="shared" si="406"/>
+        <f t="shared" si="410"/>
         <v>-544757</v>
       </c>
       <c r="AE113" s="15">
-        <f t="shared" si="406"/>
+        <f t="shared" si="410"/>
         <v>4936471</v>
       </c>
       <c r="AF113" s="15">
-        <f t="shared" si="406"/>
+        <f t="shared" si="410"/>
         <v>5049045</v>
       </c>
       <c r="AG113" s="15">
-        <f t="shared" si="406"/>
+        <f t="shared" si="410"/>
         <v>5468615</v>
       </c>
       <c r="AH113" s="15">
-        <f t="shared" si="406"/>
+        <f t="shared" si="410"/>
         <v>0</v>
       </c>
       <c r="AI113" s="15">
-        <f t="shared" si="406"/>
+        <f t="shared" si="410"/>
         <v>0</v>
       </c>
       <c r="AJ113" s="15">
-        <f t="shared" si="406"/>
+        <f t="shared" si="410"/>
         <v>0</v>
       </c>
       <c r="AK113" s="15">
-        <f t="shared" si="406"/>
+        <f t="shared" si="410"/>
         <v>0</v>
       </c>
       <c r="AL113" s="15">
-        <f t="shared" si="406"/>
+        <f t="shared" si="410"/>
         <v>0</v>
       </c>
       <c r="AM113" s="15">
-        <f t="shared" si="406"/>
+        <f t="shared" si="410"/>
         <v>0</v>
       </c>
       <c r="AN113" s="15">
-        <f t="shared" si="406"/>
+        <f t="shared" si="410"/>
         <v>0</v>
       </c>
       <c r="AO113" s="15">
-        <f t="shared" si="406"/>
+        <f t="shared" si="410"/>
         <v>0</v>
       </c>
     </row>
@@ -9695,35 +9697,35 @@
         <v>93</v>
       </c>
       <c r="D114" s="12">
-        <f t="shared" ref="D114" si="407">D113+D102+D104</f>
+        <f t="shared" ref="D114" si="411">D113+D102+D104</f>
         <v>0</v>
       </c>
       <c r="E114" s="12">
-        <f t="shared" ref="E114" si="408">E113+E102+E104</f>
+        <f t="shared" ref="E114" si="412">E113+E102+E104</f>
         <v>0</v>
       </c>
       <c r="F114" s="12">
-        <f t="shared" ref="F114" si="409">F113+F102+F104</f>
+        <f t="shared" ref="F114" si="413">F113+F102+F104</f>
         <v>0</v>
       </c>
       <c r="G114" s="12">
-        <f t="shared" ref="G114" si="410">G113+G102+G104</f>
+        <f t="shared" ref="G114" si="414">G113+G102+G104</f>
         <v>5921739</v>
       </c>
       <c r="H114" s="35">
-        <f t="shared" ref="H114" si="411">H113+H102+H104</f>
+        <f t="shared" ref="H114" si="415">H113+H102+H104</f>
         <v>5929370</v>
       </c>
       <c r="I114" s="12">
-        <f t="shared" ref="I114" si="412">I113+I102+I104</f>
+        <f t="shared" ref="I114" si="416">I113+I102+I104</f>
         <v>6032416</v>
       </c>
       <c r="J114" s="12">
-        <f t="shared" ref="J114" si="413">J113+J102+J104</f>
+        <f t="shared" ref="J114" si="417">J113+J102+J104</f>
         <v>6163471</v>
       </c>
       <c r="K114" s="12">
-        <f t="shared" ref="K114" si="414">K113+K102+K104</f>
+        <f t="shared" ref="K114" si="418">K113+K102+K104</f>
         <v>6649698</v>
       </c>
       <c r="L114" s="35">
@@ -9731,7 +9733,7 @@
         <v>7022699</v>
       </c>
       <c r="M114" s="12">
-        <f t="shared" ref="M114" si="415">M113+M102+M104</f>
+        <f t="shared" ref="M114" si="419">M113+M102+M104</f>
         <v>7064115</v>
       </c>
       <c r="N114" s="12">
@@ -9739,7 +9741,7 @@
         <v>7155688</v>
       </c>
       <c r="O114" s="12">
-        <f t="shared" ref="O114" si="416">O113+O102+O104</f>
+        <f t="shared" ref="O114" si="420">O113+O102+O104</f>
         <v>7722322</v>
       </c>
       <c r="P114" s="35">
@@ -9751,7 +9753,7 @@
         <v>7509816</v>
       </c>
       <c r="R114" s="12">
-        <f t="shared" ref="R114" si="417">R113+R102+R104</f>
+        <f t="shared" ref="R114" si="421">R113+R102+R104</f>
         <v>7264379</v>
       </c>
       <c r="S114" s="12">
@@ -9759,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="T114" s="12">
-        <f t="shared" ref="T114" si="418">T113+T102+T104</f>
+        <f t="shared" ref="T114" si="422">T113+T102+T104</f>
         <v>0</v>
       </c>
       <c r="AA114" s="12">
@@ -9767,59 +9769,59 @@
         <v>0</v>
       </c>
       <c r="AB114" s="12">
-        <f t="shared" ref="AB114:AO114" si="419">AB113+AB102+AB104</f>
+        <f t="shared" ref="AB114:AO114" si="423">AB113+AB102+AB104</f>
         <v>0</v>
       </c>
       <c r="AC114" s="12">
-        <f t="shared" si="419"/>
+        <f t="shared" si="423"/>
         <v>0</v>
       </c>
       <c r="AD114" s="12">
-        <f t="shared" si="419"/>
+        <f t="shared" si="423"/>
         <v>1012720</v>
       </c>
       <c r="AE114" s="12">
-        <f t="shared" si="419"/>
+        <f t="shared" si="423"/>
         <v>5921739</v>
       </c>
       <c r="AF114" s="12">
-        <f t="shared" si="419"/>
+        <f t="shared" si="423"/>
         <v>6649698</v>
       </c>
       <c r="AG114" s="12">
-        <f t="shared" si="419"/>
+        <f t="shared" si="423"/>
         <v>7722322</v>
       </c>
       <c r="AH114" s="12">
-        <f t="shared" si="419"/>
+        <f t="shared" si="423"/>
         <v>0</v>
       </c>
       <c r="AI114" s="12">
-        <f t="shared" si="419"/>
+        <f t="shared" si="423"/>
         <v>0</v>
       </c>
       <c r="AJ114" s="12">
-        <f t="shared" si="419"/>
+        <f t="shared" si="423"/>
         <v>0</v>
       </c>
       <c r="AK114" s="12">
-        <f t="shared" si="419"/>
+        <f t="shared" si="423"/>
         <v>0</v>
       </c>
       <c r="AL114" s="12">
-        <f t="shared" si="419"/>
+        <f t="shared" si="423"/>
         <v>0</v>
       </c>
       <c r="AM114" s="12">
-        <f t="shared" si="419"/>
+        <f t="shared" si="423"/>
         <v>0</v>
       </c>
       <c r="AN114" s="12">
-        <f t="shared" si="419"/>
+        <f t="shared" si="423"/>
         <v>0</v>
       </c>
       <c r="AO114" s="12">
-        <f t="shared" si="419"/>
+        <f t="shared" si="423"/>
         <v>0</v>
       </c>
     </row>
@@ -9997,35 +9999,35 @@
         <v>41</v>
       </c>
       <c r="D119" s="5">
-        <f t="shared" ref="D119" si="420">SUM(D117:D118)</f>
+        <f t="shared" ref="D119" si="424">SUM(D117:D118)</f>
         <v>-10814</v>
       </c>
       <c r="E119" s="5">
-        <f t="shared" ref="E119" si="421">SUM(E117:E118)</f>
+        <f t="shared" ref="E119" si="425">SUM(E117:E118)</f>
         <v>-55195</v>
       </c>
       <c r="F119" s="5">
-        <f t="shared" ref="F119" si="422">SUM(F117:F118)</f>
+        <f t="shared" ref="F119" si="426">SUM(F117:F118)</f>
         <v>-93063</v>
       </c>
       <c r="G119" s="5">
-        <f t="shared" ref="G119" si="423">SUM(G117:G118)</f>
+        <f t="shared" ref="G119" si="427">SUM(G117:G118)</f>
         <v>-85747</v>
       </c>
       <c r="H119" s="31">
-        <f t="shared" ref="H119" si="424">SUM(H117:H118)</f>
+        <f t="shared" ref="H119" si="428">SUM(H117:H118)</f>
         <v>12944</v>
       </c>
       <c r="I119" s="5">
-        <f t="shared" ref="I119" si="425">SUM(I117:I118)</f>
+        <f t="shared" ref="I119" si="429">SUM(I117:I118)</f>
         <v>992</v>
       </c>
       <c r="J119" s="5">
-        <f t="shared" ref="J119" si="426">SUM(J117:J118)</f>
+        <f t="shared" ref="J119" si="430">SUM(J117:J118)</f>
         <v>10460</v>
       </c>
       <c r="K119" s="5">
-        <f t="shared" ref="K119" si="427">SUM(K117:K118)</f>
+        <f t="shared" ref="K119" si="431">SUM(K117:K118)</f>
         <v>81186</v>
       </c>
       <c r="L119" s="31">
@@ -10033,7 +10035,7 @@
         <v>172396</v>
       </c>
       <c r="M119" s="5">
-        <f t="shared" ref="M119" si="428">SUM(M117:M118)</f>
+        <f t="shared" ref="M119" si="432">SUM(M117:M118)</f>
         <v>226245</v>
       </c>
       <c r="N119" s="5">
@@ -10041,7 +10043,7 @@
         <v>291238</v>
       </c>
       <c r="O119" s="5">
-        <f t="shared" ref="O119" si="429">SUM(O117:O118)</f>
+        <f t="shared" ref="O119" si="433">SUM(O117:O118)</f>
         <v>496499</v>
       </c>
       <c r="P119" s="31">
@@ -10053,7 +10055,7 @@
         <v>352152</v>
       </c>
       <c r="R119" s="5">
-        <f t="shared" ref="R119" si="430">SUM(R117:R118)</f>
+        <f t="shared" ref="R119" si="434">SUM(R117:R118)</f>
         <v>454424</v>
       </c>
       <c r="S119" s="5">
@@ -10061,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="T119" s="5">
-        <f t="shared" ref="T119" si="431">SUM(T117:T118)</f>
+        <f t="shared" ref="T119" si="435">SUM(T117:T118)</f>
         <v>0</v>
       </c>
       <c r="AA119" s="5">
@@ -10069,59 +10071,59 @@
         <v>0</v>
       </c>
       <c r="AB119" s="5">
-        <f t="shared" ref="AB119:AO119" si="432">SUM(AB117:AB118)</f>
+        <f t="shared" ref="AB119:AO119" si="436">SUM(AB117:AB118)</f>
         <v>0</v>
       </c>
       <c r="AC119" s="5">
-        <f t="shared" si="432"/>
+        <f t="shared" si="436"/>
         <v>-147998</v>
       </c>
       <c r="AD119" s="5">
-        <f t="shared" si="432"/>
+        <f t="shared" si="436"/>
         <v>-199406</v>
       </c>
       <c r="AE119" s="5">
-        <f t="shared" si="432"/>
+        <f t="shared" si="436"/>
         <v>-85747</v>
       </c>
       <c r="AF119" s="5">
-        <f t="shared" si="432"/>
+        <f t="shared" si="436"/>
         <v>81186</v>
       </c>
       <c r="AG119" s="5">
-        <f t="shared" si="432"/>
+        <f t="shared" si="436"/>
         <v>496499</v>
       </c>
       <c r="AH119" s="5">
-        <f t="shared" si="432"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="AI119" s="5">
-        <f t="shared" si="432"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="AJ119" s="5">
-        <f t="shared" si="432"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="AK119" s="5">
-        <f t="shared" si="432"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="AL119" s="5">
-        <f t="shared" si="432"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="AM119" s="5">
-        <f t="shared" si="432"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="AN119" s="5">
-        <f t="shared" si="432"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
       <c r="AO119" s="5">
-        <f t="shared" si="432"/>
+        <f t="shared" si="436"/>
         <v>0</v>
       </c>
     </row>
@@ -10605,63 +10607,63 @@
         <v>41</v>
       </c>
       <c r="D132" s="5">
-        <f t="shared" ref="D132" si="433">SUM(D130:D131)</f>
+        <f t="shared" ref="D132" si="437">SUM(D130:D131)</f>
         <v>-10814</v>
       </c>
       <c r="E132" s="5">
-        <f t="shared" ref="E132" si="434">SUM(E130:E131)</f>
+        <f t="shared" ref="E132" si="438">SUM(E130:E131)</f>
         <v>-44381</v>
       </c>
       <c r="F132" s="5">
-        <f t="shared" ref="F132" si="435">SUM(F130:F131)</f>
+        <f t="shared" ref="F132" si="439">SUM(F130:F131)</f>
         <v>-37868</v>
       </c>
       <c r="G132" s="5">
-        <f t="shared" ref="G132" si="436">SUM(G130:G131)</f>
+        <f t="shared" ref="G132" si="440">SUM(G130:G131)</f>
         <v>7316</v>
       </c>
       <c r="H132" s="31">
-        <f t="shared" ref="H132" si="437">SUM(H130:H131)</f>
+        <f t="shared" ref="H132" si="441">SUM(H130:H131)</f>
         <v>12944</v>
       </c>
       <c r="I132" s="5">
-        <f t="shared" ref="I132" si="438">SUM(I130:I131)</f>
+        <f t="shared" ref="I132" si="442">SUM(I130:I131)</f>
         <v>-11952</v>
       </c>
       <c r="J132" s="5">
-        <f t="shared" ref="J132" si="439">SUM(J130:J131)</f>
+        <f t="shared" ref="J132" si="443">SUM(J130:J131)</f>
         <v>9468</v>
       </c>
       <c r="K132" s="5">
-        <f t="shared" ref="K132" si="440">SUM(K130:K131)</f>
+        <f t="shared" ref="K132" si="444">SUM(K130:K131)</f>
         <v>70726</v>
       </c>
       <c r="L132" s="31">
-        <f t="shared" ref="L132:O132" si="441">SUM(L130:L131)</f>
+        <f t="shared" ref="L132:O132" si="445">SUM(L130:L131)</f>
         <v>172396</v>
       </c>
       <c r="M132" s="5">
-        <f t="shared" si="441"/>
+        <f t="shared" si="445"/>
         <v>53849</v>
       </c>
       <c r="N132" s="5">
-        <f t="shared" si="441"/>
+        <f t="shared" si="445"/>
         <v>64993</v>
       </c>
       <c r="O132" s="5">
-        <f t="shared" si="441"/>
+        <f t="shared" si="445"/>
         <v>205261</v>
       </c>
       <c r="P132" s="31">
-        <f t="shared" ref="P132" si="442">SUM(P130:P131)</f>
+        <f t="shared" ref="P132" si="446">SUM(P130:P131)</f>
         <v>283133</v>
       </c>
       <c r="Q132" s="5">
-        <f t="shared" ref="Q132" si="443">SUM(Q130:Q131)</f>
+        <f t="shared" ref="Q132" si="447">SUM(Q130:Q131)</f>
         <v>69019</v>
       </c>
       <c r="R132" s="5">
-        <f t="shared" ref="R132" si="444">SUM(R130:R131)</f>
+        <f t="shared" ref="R132" si="448">SUM(R130:R131)</f>
         <v>102272</v>
       </c>
       <c r="S132" s="5"/>
@@ -10804,6 +10806,9 @@
         <v>298286</v>
       </c>
       <c r="S135" s="5"/>
+      <c r="Z135" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B136" s="5" t="s">
@@ -10969,55 +10974,55 @@
       <c r="L144" s="31"/>
       <c r="P144" s="31"/>
       <c r="AC144" s="5">
-        <f>AC7*AC145</f>
+        <f t="shared" ref="AC144:AO144" si="449">AC7*AC145</f>
         <v>0</v>
       </c>
       <c r="AD144" s="5">
-        <f>AD7*AD145</f>
+        <f t="shared" si="449"/>
         <v>0</v>
       </c>
       <c r="AE144" s="5">
-        <f>AE7*AE145</f>
+        <f t="shared" si="449"/>
         <v>39565256.07</v>
       </c>
       <c r="AF144" s="5">
-        <f>AF7*AF145</f>
+        <f t="shared" si="449"/>
         <v>85136403.689999998</v>
       </c>
       <c r="AG144" s="5">
-        <f>AG7*AG145</f>
+        <f t="shared" si="449"/>
         <v>54840683.799999997</v>
       </c>
       <c r="AH144" s="5">
-        <f>AH7*AH145</f>
+        <f t="shared" si="449"/>
         <v>0</v>
       </c>
       <c r="AI144" s="5">
-        <f>AI7*AI145</f>
+        <f t="shared" si="449"/>
         <v>0</v>
       </c>
       <c r="AJ144" s="5">
-        <f>AJ7*AJ145</f>
+        <f t="shared" si="449"/>
         <v>0</v>
       </c>
       <c r="AK144" s="5">
-        <f>AK7*AK145</f>
+        <f t="shared" si="449"/>
         <v>0</v>
       </c>
       <c r="AL144" s="5">
-        <f>AL7*AL145</f>
+        <f t="shared" si="449"/>
         <v>0</v>
       </c>
       <c r="AM144" s="5">
-        <f>AM7*AM145</f>
+        <f t="shared" si="449"/>
         <v>0</v>
       </c>
       <c r="AN144" s="5">
-        <f>AN7*AN145</f>
+        <f t="shared" si="449"/>
         <v>0</v>
       </c>
       <c r="AO144" s="5">
-        <f>AO7*AO145</f>
+        <f t="shared" si="449"/>
         <v>0</v>
       </c>
     </row>
@@ -11030,51 +11035,51 @@
         <v>0</v>
       </c>
       <c r="AD145" s="5">
-        <f t="shared" ref="AD145:AO145" si="445">AD70</f>
+        <f t="shared" ref="AD145:AO145" si="450">AD70</f>
         <v>44847.442000000003</v>
       </c>
       <c r="AE145" s="5">
-        <f t="shared" si="445"/>
+        <f t="shared" si="450"/>
         <v>141613</v>
       </c>
       <c r="AF145" s="5">
-        <f t="shared" si="445"/>
+        <f t="shared" si="450"/>
         <v>300273</v>
       </c>
       <c r="AG145" s="5">
-        <f t="shared" si="445"/>
+        <f t="shared" si="450"/>
         <v>318730</v>
       </c>
       <c r="AH145" s="5">
-        <f t="shared" si="445"/>
+        <f t="shared" si="450"/>
         <v>0</v>
       </c>
       <c r="AI145" s="5">
-        <f t="shared" si="445"/>
+        <f t="shared" si="450"/>
         <v>0</v>
       </c>
       <c r="AJ145" s="5">
-        <f t="shared" si="445"/>
+        <f t="shared" si="450"/>
         <v>0</v>
       </c>
       <c r="AK145" s="5">
-        <f t="shared" si="445"/>
+        <f t="shared" si="450"/>
         <v>0</v>
       </c>
       <c r="AL145" s="5">
-        <f t="shared" si="445"/>
+        <f t="shared" si="450"/>
         <v>0</v>
       </c>
       <c r="AM145" s="5">
-        <f t="shared" si="445"/>
+        <f t="shared" si="450"/>
         <v>0</v>
       </c>
       <c r="AN145" s="5">
-        <f t="shared" si="445"/>
+        <f t="shared" si="450"/>
         <v>0</v>
       </c>
       <c r="AO145" s="5">
-        <f t="shared" si="445"/>
+        <f t="shared" si="450"/>
         <v>0</v>
       </c>
     </row>
@@ -11087,51 +11092,51 @@
         <v>0</v>
       </c>
       <c r="AD146" s="23">
-        <f t="shared" ref="AD146:AO146" si="446">AD144/AD49</f>
+        <f t="shared" ref="AD146:AO146" si="451">AD144/AD49</f>
         <v>0</v>
       </c>
       <c r="AE146" s="23">
-        <f t="shared" si="446"/>
+        <f t="shared" si="451"/>
         <v>66.827671476516301</v>
       </c>
       <c r="AF146" s="23">
-        <f t="shared" si="446"/>
+        <f t="shared" si="451"/>
         <v>69.822454263704486</v>
       </c>
       <c r="AG146" s="23">
-        <f t="shared" si="446"/>
+        <f t="shared" si="451"/>
         <v>26.548759403173513</v>
       </c>
       <c r="AH146" s="23" t="e">
-        <f t="shared" si="446"/>
+        <f t="shared" si="451"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI146" s="23" t="e">
-        <f t="shared" si="446"/>
+        <f t="shared" si="451"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ146" s="23" t="e">
-        <f t="shared" si="446"/>
+        <f t="shared" si="451"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK146" s="23" t="e">
-        <f t="shared" si="446"/>
+        <f t="shared" si="451"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL146" s="23" t="e">
-        <f t="shared" si="446"/>
+        <f t="shared" si="451"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM146" s="23" t="e">
-        <f t="shared" si="446"/>
+        <f t="shared" si="451"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN146" s="23" t="e">
-        <f t="shared" si="446"/>
+        <f t="shared" si="451"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO146" s="23" t="e">
-        <f t="shared" si="446"/>
+        <f t="shared" si="451"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11144,51 +11149,51 @@
         <v>0</v>
       </c>
       <c r="AD147" s="23">
-        <f t="shared" ref="AD147:AO147" si="447">AD144/AD67</f>
+        <f t="shared" ref="AD147:AO147" si="452">AD144/AD67</f>
         <v>0</v>
       </c>
       <c r="AE147" s="23">
-        <f t="shared" si="447"/>
+        <f t="shared" si="452"/>
         <v>-73.39103930239547</v>
       </c>
       <c r="AF147" s="23">
-        <f t="shared" si="447"/>
+        <f t="shared" si="452"/>
         <v>-125.21016855700729</v>
       </c>
       <c r="AG147" s="23">
-        <f t="shared" si="447"/>
+        <f t="shared" si="452"/>
         <v>-68.834366296182395</v>
       </c>
       <c r="AH147" s="23" t="e">
-        <f t="shared" si="447"/>
+        <f t="shared" si="452"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI147" s="23" t="e">
-        <f t="shared" si="447"/>
+        <f t="shared" si="452"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ147" s="23" t="e">
-        <f t="shared" si="447"/>
+        <f t="shared" si="452"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK147" s="23" t="e">
-        <f t="shared" si="447"/>
+        <f t="shared" si="452"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL147" s="23" t="e">
-        <f t="shared" si="447"/>
+        <f t="shared" si="452"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM147" s="23" t="e">
-        <f t="shared" si="447"/>
+        <f t="shared" si="452"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN147" s="23" t="e">
-        <f t="shared" si="447"/>
+        <f t="shared" si="452"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO147" s="23" t="e">
-        <f t="shared" si="447"/>
+        <f t="shared" si="452"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11201,51 +11206,51 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AD148" s="23">
-        <f t="shared" ref="AD148:AO148" si="448">AD144/AD113</f>
+        <f t="shared" ref="AD148:AO148" si="453">AD144/AD113</f>
         <v>0</v>
       </c>
       <c r="AE148" s="23">
-        <f t="shared" si="448"/>
+        <f t="shared" si="453"/>
         <v>8.0148867622234583</v>
       </c>
       <c r="AF148" s="23">
-        <f t="shared" si="448"/>
+        <f t="shared" si="453"/>
         <v>16.861882532241246</v>
       </c>
       <c r="AG148" s="23">
-        <f t="shared" si="448"/>
+        <f t="shared" si="453"/>
         <v>10.028258306719342</v>
       </c>
       <c r="AH148" s="23" t="e">
-        <f t="shared" si="448"/>
+        <f t="shared" si="453"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI148" s="23" t="e">
-        <f t="shared" si="448"/>
+        <f t="shared" si="453"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ148" s="23" t="e">
-        <f t="shared" si="448"/>
+        <f t="shared" si="453"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK148" s="23" t="e">
-        <f t="shared" si="448"/>
+        <f t="shared" si="453"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL148" s="23" t="e">
-        <f t="shared" si="448"/>
+        <f t="shared" si="453"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM148" s="23" t="e">
-        <f t="shared" si="448"/>
+        <f t="shared" si="453"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN148" s="23" t="e">
-        <f t="shared" si="448"/>
+        <f t="shared" si="453"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO148" s="23" t="e">
-        <f t="shared" si="448"/>
+        <f t="shared" si="453"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11258,51 +11263,51 @@
         <v>0</v>
       </c>
       <c r="AD149" s="23">
-        <f t="shared" ref="AD149:AO149" si="449">AD144/AD119</f>
+        <f t="shared" ref="AD149:AO149" si="454">AD144/AD119</f>
         <v>0</v>
       </c>
       <c r="AE149" s="23">
-        <f t="shared" si="449"/>
+        <f t="shared" si="454"/>
         <v>-461.41854607158268</v>
       </c>
       <c r="AF149" s="23">
-        <f t="shared" si="449"/>
+        <f t="shared" si="454"/>
         <v>1048.6586811765576</v>
       </c>
       <c r="AG149" s="23">
-        <f t="shared" si="449"/>
+        <f t="shared" si="454"/>
         <v>110.45477191293436</v>
       </c>
       <c r="AH149" s="23" t="e">
-        <f t="shared" si="449"/>
+        <f t="shared" si="454"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI149" s="23" t="e">
-        <f t="shared" si="449"/>
+        <f t="shared" si="454"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ149" s="23" t="e">
-        <f t="shared" si="449"/>
+        <f t="shared" si="454"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK149" s="23" t="e">
-        <f t="shared" si="449"/>
+        <f t="shared" si="454"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL149" s="23" t="e">
-        <f t="shared" si="449"/>
+        <f t="shared" si="454"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM149" s="23" t="e">
-        <f t="shared" si="449"/>
+        <f t="shared" si="454"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN149" s="23" t="e">
-        <f t="shared" si="449"/>
+        <f t="shared" si="454"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO149" s="23" t="e">
-        <f t="shared" si="449"/>
+        <f t="shared" si="454"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11329,51 +11334,51 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AD152" s="22">
-        <f t="shared" ref="AD152:AO152" si="450">(AD49-AC49)/ABS(AC49)</f>
+        <f t="shared" ref="AD152:AO152" si="455">(AD49-AC49)/ABS(AC49)</f>
         <v>1.7387913020089794</v>
       </c>
       <c r="AE152" s="22">
-        <f t="shared" si="450"/>
+        <f t="shared" si="455"/>
         <v>1.2362737395561061</v>
       </c>
       <c r="AF152" s="22">
-        <f t="shared" si="450"/>
+        <f t="shared" si="455"/>
         <v>1.0595035208234453</v>
       </c>
       <c r="AG152" s="22">
-        <f t="shared" si="450"/>
+        <f t="shared" si="455"/>
         <v>0.69409764566847121</v>
       </c>
       <c r="AH152" s="22">
-        <f t="shared" si="450"/>
+        <f t="shared" si="455"/>
         <v>-1</v>
       </c>
       <c r="AI152" s="22" t="e">
-        <f t="shared" si="450"/>
+        <f t="shared" si="455"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ152" s="22" t="e">
-        <f t="shared" si="450"/>
+        <f t="shared" si="455"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK152" s="22" t="e">
-        <f t="shared" si="450"/>
+        <f t="shared" si="455"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL152" s="22" t="e">
-        <f t="shared" si="450"/>
+        <f t="shared" si="455"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM152" s="22" t="e">
-        <f t="shared" si="450"/>
+        <f t="shared" si="455"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN152" s="22" t="e">
-        <f t="shared" si="450"/>
+        <f t="shared" si="455"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO152" s="22" t="e">
-        <f t="shared" si="450"/>
+        <f t="shared" si="455"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11389,51 +11394,104 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AD153" s="22">
-        <f t="shared" ref="AD153:AO153" si="451">(AD67-AC67)/ABS(AC67)</f>
+        <f t="shared" ref="AD153:AO153" si="456">(AD67-AC67)/ABS(AC67)</f>
         <v>-0.95775383647516121</v>
       </c>
       <c r="AE153" s="22">
-        <f t="shared" si="451"/>
+        <f t="shared" si="456"/>
         <v>-0.54676574805973577</v>
       </c>
       <c r="AF153" s="22">
-        <f t="shared" si="451"/>
+        <f t="shared" si="456"/>
         <v>-0.26126039228198006</v>
       </c>
       <c r="AG153" s="22">
-        <f t="shared" si="451"/>
+        <f t="shared" si="456"/>
         <v>-0.17171460170483624</v>
       </c>
       <c r="AH153" s="22">
-        <f t="shared" si="451"/>
+        <f t="shared" si="456"/>
         <v>1</v>
       </c>
       <c r="AI153" s="22" t="e">
-        <f t="shared" si="451"/>
+        <f t="shared" si="456"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ153" s="22" t="e">
-        <f t="shared" si="451"/>
+        <f t="shared" si="456"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK153" s="22" t="e">
-        <f t="shared" si="451"/>
+        <f t="shared" si="456"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL153" s="22" t="e">
-        <f t="shared" si="451"/>
+        <f t="shared" si="456"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM153" s="22" t="e">
-        <f t="shared" si="451"/>
+        <f t="shared" si="456"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN153" s="22" t="e">
-        <f t="shared" si="451"/>
+        <f t="shared" si="456"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO153" s="22" t="e">
-        <f t="shared" si="451"/>
+        <f t="shared" si="456"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD154" s="9" t="e">
+        <f>(AD70-AC70)/ABS(AC70)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE154" s="9">
+        <f t="shared" ref="AE154:AO154" si="457">(AE70-AD70)/ABS(AD70)</f>
+        <v>2.1576605863050111</v>
+      </c>
+      <c r="AF154" s="9">
+        <f t="shared" si="457"/>
+        <v>1.1203773664847154</v>
+      </c>
+      <c r="AG154" s="9">
+        <f t="shared" si="457"/>
+        <v>6.1467398001152286E-2</v>
+      </c>
+      <c r="AH154" s="9">
+        <f t="shared" si="457"/>
+        <v>-1</v>
+      </c>
+      <c r="AI154" s="9" t="e">
+        <f t="shared" si="457"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ154" s="9" t="e">
+        <f t="shared" si="457"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK154" s="9" t="e">
+        <f t="shared" si="457"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL154" s="9" t="e">
+        <f t="shared" si="457"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM154" s="9" t="e">
+        <f t="shared" si="457"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN154" s="9" t="e">
+        <f t="shared" si="457"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO154" s="9" t="e">
+        <f t="shared" si="457"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/SNOW/SNOW.xlsx
+++ b/SNOW/SNOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/SNOW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2059" documentId="8_{802759B5-6396-440F-9600-E94D6CFC7CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0383A363-836A-458E-8A2C-BA7A30050906}"/>
+  <xr:revisionPtr revIDLastSave="2097" documentId="8_{802759B5-6396-440F-9600-E94D6CFC7CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D09EC8F7-EF8D-4D4E-8232-EE15F08A7A3C}"/>
   <bookViews>
-    <workbookView xWindow="11750" yWindow="3410" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{CEA71A0E-9C7D-494B-9C79-388ACB801F89}"/>
+    <workbookView xWindow="11750" yWindow="3410" windowWidth="28800" windowHeight="15460" firstSheet="2" activeTab="2" xr2:uid="{CEA71A0E-9C7D-494B-9C79-388ACB801F89}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Model" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,70 +78,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="161">
   <si>
-    <t>Customers</t>
-  </si>
-  <si>
-    <t>Adobe</t>
-  </si>
-  <si>
-    <t>Square</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sony </t>
-  </si>
-  <si>
-    <t>Netflix</t>
-  </si>
-  <si>
-    <t>Office Depot</t>
-  </si>
-  <si>
-    <t>Capital One</t>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>MarketCap</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Snowflake Inc.</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNOW   </t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Software - Application</t>
+  </si>
+  <si>
+    <t>Headcount</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t xml:space="preserve">Info </t>
-  </si>
-  <si>
-    <t> Its platform offers Data Cloud, which enables customers to consolidate data into a single source of truth to drive meaningful business insights, build data-driven applications, and share data and data products.</t>
-  </si>
-  <si>
-    <t>The company was formerly known as Snowflake Computing, Inc. and changed its name to Snowflake Inc. in April 2019. Snowflake Inc. was incorporated in 2012 and is based in Bozeman, Montana.</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Ticker</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Sector</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Headcount</t>
-  </si>
-  <si>
-    <t>Snowflake Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNOW   </t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>Software - Application</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <r>
@@ -170,22 +161,106 @@
     </r>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Shares</t>
-  </si>
-  <si>
-    <t>MarketCap</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Debt</t>
-  </si>
-  <si>
-    <t>EV</t>
+    <t> Its platform offers Data Cloud, which enables customers to consolidate data into a single source of truth to drive meaningful business insights, build data-driven applications, and share data and data products.</t>
+  </si>
+  <si>
+    <t>The company was formerly known as Snowflake Computing, Inc. and changed its name to Snowflake Inc. in April 2019. Snowflake Inc. was incorporated in 2012 and is based in Bozeman, Montana.</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>Capital One</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony </t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Office Depot</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquired all oustanding shares of "Streamlist, Inc." a privately-held company which provides an open-source framedwork for creating and deploying data applications. </t>
+  </si>
+  <si>
+    <t>Fiscal Period</t>
+  </si>
+  <si>
+    <t>Q120</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
   </si>
   <si>
     <t>Filing Date</t>
@@ -206,15 +281,252 @@
     <t>x</t>
   </si>
   <si>
+    <t>Total Customers</t>
+  </si>
+  <si>
+    <t>Net revenue retention rate</t>
+  </si>
+  <si>
+    <t>Customers with trailing 12-month grater than $1 million</t>
+  </si>
+  <si>
+    <t>Remaining performance obligations (RPO)</t>
+  </si>
+  <si>
+    <t>Forbes 2000 Customers</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Service Breakdown *in thousands, USD</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product </t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>COGs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Profit </t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Professional Services &amp; Other</t>
+  </si>
+  <si>
+    <t>Consolidated Breakdown</t>
+  </si>
+  <si>
+    <t>Revenue Mix %</t>
+  </si>
+  <si>
+    <t>Total Mix %</t>
+  </si>
+  <si>
+    <t>Revenue by Geography *in thousands, USD</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Other Americas</t>
+  </si>
+  <si>
+    <t>EMEA</t>
+  </si>
+  <si>
+    <t>Asia-Pacific &amp; Japan</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Mix %</t>
+  </si>
+  <si>
     <t>Income Statement *in thousands, USD</t>
   </si>
   <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>Total Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Other income (expenses)</t>
+  </si>
+  <si>
+    <t>Interest income</t>
+  </si>
+  <si>
+    <t>Income before taxes</t>
+  </si>
+  <si>
+    <t>Taxes (benefit)</t>
+  </si>
+  <si>
+    <t>Net Income, including non-controlling interests</t>
+  </si>
+  <si>
+    <t>Less: Noncontrolling interests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Income   </t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
     <t>Balance Sheet *in thousands, USD</t>
   </si>
   <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash </t>
+  </si>
+  <si>
+    <t>Short-term investments</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Deferred commissions</t>
+  </si>
+  <si>
+    <t>Prepaid expenses and other current assets</t>
+  </si>
+  <si>
+    <t>Total Current Assets</t>
+  </si>
+  <si>
+    <t>Non-current Assets</t>
+  </si>
+  <si>
+    <t>Long-term investments</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Operating lease right-of-use assets</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Intangible assets</t>
+  </si>
+  <si>
+    <t>Deferred commissions, non-current</t>
+  </si>
+  <si>
+    <t>Other assets</t>
+  </si>
+  <si>
+    <t>Total Non-current Assets</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Current Liabilities</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Accrued expenses and other current liabilities</t>
+  </si>
+  <si>
+    <t>Operating lease liabilities</t>
+  </si>
+  <si>
+    <t>Deferred revenue</t>
+  </si>
+  <si>
+    <t>Total Current Liabilities</t>
+  </si>
+  <si>
+    <t>Non-current Liabilities</t>
+  </si>
+  <si>
+    <t>Operating lease liabilities, non-current</t>
+  </si>
+  <si>
+    <t>Deferred revenue, non-current</t>
+  </si>
+  <si>
+    <t>Other liabilities</t>
+  </si>
+  <si>
+    <t>Total Non-current Liabilities</t>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Redeemable preferred stock</t>
+  </si>
+  <si>
+    <t>Preferred stock</t>
+  </si>
+  <si>
+    <t>Common stock</t>
+  </si>
+  <si>
+    <t>Treasury stock</t>
+  </si>
+  <si>
+    <t>Additional paid-in capital</t>
+  </si>
+  <si>
+    <t>Accumulated other comprehensive loss</t>
+  </si>
+  <si>
+    <t>Accumulated deficit</t>
+  </si>
+  <si>
+    <t>Total Snowflake Inc. Stockholders' equity</t>
+  </si>
+  <si>
+    <t>Noncontrolling interest</t>
+  </si>
+  <si>
+    <t>Total Stockholders' Equity</t>
+  </si>
+  <si>
+    <t>Total Equity &amp; Liabilities</t>
+  </si>
+  <si>
     <t>Cash Flow *in thousands, USD</t>
   </si>
   <si>
@@ -245,252 +557,9 @@
     <t>Cash end</t>
   </si>
   <si>
-    <t xml:space="preserve">Product </t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gross Profit </t>
-  </si>
-  <si>
-    <t>Gross Margin</t>
-  </si>
-  <si>
-    <t>Professional Services &amp; Other</t>
-  </si>
-  <si>
-    <t>COGs</t>
-  </si>
-  <si>
-    <t>Consolidated Breakdown</t>
-  </si>
-  <si>
-    <t>Current Assets</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Non-current Liabilities</t>
-  </si>
-  <si>
-    <t>Non-current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash </t>
-  </si>
-  <si>
-    <t>Short-term investments</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Deferred commissions</t>
-  </si>
-  <si>
-    <t>Prepaid expenses and other current assets</t>
-  </si>
-  <si>
-    <t>Total Current Assets</t>
-  </si>
-  <si>
-    <t>Long-term investments</t>
-  </si>
-  <si>
-    <t>PP&amp;E</t>
-  </si>
-  <si>
-    <t>Operating lease right-of-use assets</t>
-  </si>
-  <si>
-    <t>Goodwill</t>
-  </si>
-  <si>
-    <t>Intangible assets</t>
-  </si>
-  <si>
-    <t>Deferred commissions, non-current</t>
-  </si>
-  <si>
-    <t>Other assets</t>
-  </si>
-  <si>
-    <t>Total Non-current Assets</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
-    <t>Current Liabilities</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>Accrued expenses and other current liabilities</t>
-  </si>
-  <si>
-    <t>Operating lease liabilities</t>
-  </si>
-  <si>
-    <t>Deferred revenue</t>
-  </si>
-  <si>
-    <t>Total Current Liabilities</t>
-  </si>
-  <si>
-    <t>Operating lease liabilities, non-current</t>
-  </si>
-  <si>
-    <t>Deferred revenue, non-current</t>
-  </si>
-  <si>
-    <t>Other liabilities</t>
-  </si>
-  <si>
-    <t>Total Non-current Liabilities</t>
-  </si>
-  <si>
-    <t>Total Liabilities</t>
-  </si>
-  <si>
-    <t>Preferred stock</t>
-  </si>
-  <si>
-    <t>Common stock</t>
-  </si>
-  <si>
-    <t>Additional paid-in capital</t>
-  </si>
-  <si>
-    <t>Accumulated other comprehensive loss</t>
-  </si>
-  <si>
-    <t>Accumulated deficit</t>
-  </si>
-  <si>
-    <t>Total Snowflake Inc. Stockholders' equity</t>
-  </si>
-  <si>
-    <t>Noncontrolling interest</t>
-  </si>
-  <si>
-    <t>Total Stockholders' Equity</t>
-  </si>
-  <si>
-    <t>Total Equity &amp; Liabilities</t>
-  </si>
-  <si>
-    <t>Operating Expenses</t>
-  </si>
-  <si>
-    <t>S&amp;M</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>G&amp;A</t>
-  </si>
-  <si>
-    <t>Total Operating Expenses</t>
-  </si>
-  <si>
-    <t>Operating Income</t>
-  </si>
-  <si>
-    <t>Operating Margin</t>
-  </si>
-  <si>
-    <t>Other income (expenses)</t>
-  </si>
-  <si>
-    <t>Interest income</t>
-  </si>
-  <si>
-    <t>Income before taxes</t>
-  </si>
-  <si>
-    <t>Net Income, including non-controlling interests</t>
-  </si>
-  <si>
-    <t>Less: Noncontrolling interests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Income   </t>
-  </si>
-  <si>
-    <t>EPS</t>
-  </si>
-  <si>
-    <t>Taxes (benefit)</t>
-  </si>
-  <si>
-    <t>Fiscal Period</t>
-  </si>
-  <si>
-    <t>FY23</t>
-  </si>
-  <si>
-    <t>FY22</t>
-  </si>
-  <si>
-    <t>FY21</t>
-  </si>
-  <si>
-    <t>FY20</t>
-  </si>
-  <si>
     <t>3-month adjusted</t>
   </si>
   <si>
-    <t>Revenue by Geography *in thousands, USD</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Other Americas</t>
-  </si>
-  <si>
-    <t>EMEA</t>
-  </si>
-  <si>
-    <t>Asia-Pacific &amp; Japan</t>
-  </si>
-  <si>
-    <t>Total Revenue</t>
-  </si>
-  <si>
-    <t>Mix %</t>
-  </si>
-  <si>
-    <t>Revenue Mix %</t>
-  </si>
-  <si>
-    <t>Total Mix %</t>
-  </si>
-  <si>
-    <t>FY19</t>
-  </si>
-  <si>
-    <t>Redeemable preferred stock</t>
-  </si>
-  <si>
-    <t>Total Customers</t>
-  </si>
-  <si>
-    <t>Net revenue retention rate</t>
-  </si>
-  <si>
-    <t>FY18</t>
-  </si>
-  <si>
-    <t>Customers with trailing 12-month grater than $1 million</t>
-  </si>
-  <si>
     <t>Stock Statistics</t>
   </si>
   <si>
@@ -513,75 +582,6 @@
   </si>
   <si>
     <t>Earnings</t>
-  </si>
-  <si>
-    <t>Treasury stock</t>
-  </si>
-  <si>
-    <t>Acquisitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquired all oustanding shares of "Streamlist, Inc." a privately-held company which provides an open-source framedwork for creating and deploying data applications. </t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Q421</t>
-  </si>
-  <si>
-    <t>Q321</t>
-  </si>
-  <si>
-    <t>Q221</t>
-  </si>
-  <si>
-    <t>Q121</t>
-  </si>
-  <si>
-    <t>Q122</t>
-  </si>
-  <si>
-    <t>Q222</t>
-  </si>
-  <si>
-    <t>Q322</t>
-  </si>
-  <si>
-    <t>Q422</t>
-  </si>
-  <si>
-    <t>Q123</t>
-  </si>
-  <si>
-    <t>Q223</t>
-  </si>
-  <si>
-    <t>Q323</t>
-  </si>
-  <si>
-    <t>Q423</t>
-  </si>
-  <si>
-    <t>Q120</t>
-  </si>
-  <si>
-    <t>Q220</t>
-  </si>
-  <si>
-    <t>Q320</t>
-  </si>
-  <si>
-    <t>Q420</t>
-  </si>
-  <si>
-    <t>Remaining performance obligations (RPO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Forbes 2000 Customers</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,10 +797,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -922,37 +918,37 @@
     <v>Finance</v>
     <v>4</v>
     <v>237.72</v>
-    <v>128.56</v>
-    <v>0.93689999999999996</v>
-    <v>-1.56</v>
-    <v>-6.6410000000000002E-3</v>
-    <v>-8.286E-3</v>
-    <v>-1.24</v>
+    <v>122.6</v>
+    <v>0.84889999999999999</v>
+    <v>1.51</v>
+    <v>-3.1450000000000002E-3</v>
+    <v>1.1715999999999999E-2</v>
+    <v>-0.41</v>
     <v>USD</v>
-    <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
-    <v>5884</v>
+    <v>Snowflake Inc. enables every organization to mobilize their data with Snowflakes Data Cloud. The Company’s platform powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, apply artificial intelligence (AI) to solve business problems, build data applications, and share data and data products. Its platform supports a range of workload, including data warehouse, data lake, data engineering, AI/machine learning (ML), applications, collaboration, cybersecurity, and Unistore. Its cloud-native architecture consists of three independently scalable but logically integrated layers across compute, storage, and cloud services. The compute layer provides dedicated resources to enable users to simultaneously access common data sets for many use cases with minimal latency. The storage layer ingests massive amounts and varieties of structured, semi-structured, and unstructured data to create a unified data record.</v>
+    <v>7004</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>194.2</v>
+    <v>132.55000000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45352.907730983592</v>
+    <v>45504.974695786717</v>
     <v>0</v>
-    <v>186.14</v>
-    <v>61486890000</v>
+    <v>128.77000000000001</v>
+    <v>43654571999</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>191.26</v>
-    <v>188.28</v>
-    <v>186.72</v>
-    <v>185.48</v>
-    <v>329300000</v>
+    <v>129.35</v>
+    <v>128.88</v>
+    <v>130.38999999999999</v>
+    <v>129.97</v>
+    <v>334800000</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>17265859</v>
-    <v>7253628</v>
+    <v>5496690</v>
+    <v>5962329</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -1114,9 +1110,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -1559,56 +1555,56 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>186.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>130.38999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">_FV(A1,"Shares outstanding",TRUE)/1000000</f>
-        <v>329.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>334.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <f>B2*B3</f>
-        <v>61486.896000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>43654.572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1624,125 +1620,125 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.95">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.95">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="13" spans="1:2" ht="15.95">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+    <row r="16" spans="1:2" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="16">
         <v>44651</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1756,109 +1752,109 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="S11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AG30" sqref="AD30:AG30"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AG30" sqref="AD30:AG30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="4" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.54296875" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.90625" customWidth="1"/>
-    <col min="34" max="41" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.85546875" customWidth="1"/>
+    <col min="34" max="41" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34">
       <c r="B1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="M1" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="O1" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="Q1" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="R1" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="S1" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="AC1" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="AD1" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="AE1" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="AF1" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="AG1" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="AH1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H2" s="25">
         <v>44351</v>
@@ -1903,9 +1899,9 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D3" s="16">
         <v>43951</v>
@@ -1968,14 +1964,14 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" s="1" customFormat="1">
       <c r="H4" s="26"/>
       <c r="L4" s="26"/>
       <c r="P4" s="26"/>
     </row>
-    <row r="5" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" s="18" customFormat="1">
       <c r="B5" s="18" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H5" s="27"/>
       <c r="L5" s="27"/>
@@ -1993,9 +1989,9 @@
         <v>211.65</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" s="18" customFormat="1">
       <c r="B6" s="18" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H6" s="27"/>
       <c r="L6" s="27"/>
@@ -2013,9 +2009,9 @@
         <v>128.56</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" s="19" customFormat="1">
       <c r="B7" s="19" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H7" s="28"/>
       <c r="L7" s="28"/>
@@ -2033,20 +2029,20 @@
         <v>164.62</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H9" s="26"/>
       <c r="L9" s="26"/>
       <c r="P9" s="26"/>
     </row>
-    <row r="10" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" s="5" customFormat="1">
       <c r="B10" s="5" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5">
         <v>2720</v>
@@ -2109,9 +2105,9 @@
         <v>7828</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" s="9" customFormat="1">
       <c r="B11" s="9" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D11" s="9">
         <v>1.71</v>
@@ -2168,9 +2164,9 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34">
       <c r="B12" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>48</v>
@@ -2227,9 +2223,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" s="44" customFormat="1">
       <c r="B13" s="44" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="D13" s="44">
         <v>467.8</v>
@@ -2286,21 +2282,21 @@
         <v>3660.5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" s="5" customFormat="1">
       <c r="B14" s="5" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="L14" s="31">
         <v>506</v>
@@ -2333,31 +2329,31 @@
         <v>573</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="H15" s="26"/>
       <c r="L15" s="26"/>
       <c r="N15" s="1" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="P15" s="26"/>
     </row>
-    <row r="16" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" s="4" customFormat="1">
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H16" s="30"/>
       <c r="L16" s="30"/>
       <c r="P16" s="30"/>
     </row>
-    <row r="17" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:41" s="5" customFormat="1">
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D17" s="5">
         <v>101817</v>
@@ -2420,9 +2416,9 @@
         <v>1938783</v>
       </c>
     </row>
-    <row r="18" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:41" s="8" customFormat="1">
       <c r="B18" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D18" s="8">
         <v>35533</v>
@@ -2485,9 +2481,9 @@
         <v>547547</v>
       </c>
     </row>
-    <row r="19" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:41" s="5" customFormat="1">
       <c r="B19" s="5" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ref="D19" si="0">D17-D18</f>
@@ -2618,9 +2614,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:41" s="9" customFormat="1">
       <c r="B20" s="9" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" ref="D20" si="13">D19/D17</f>
@@ -2751,17 +2747,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:41" s="6" customFormat="1">
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H21" s="33"/>
       <c r="L21" s="33"/>
       <c r="P21" s="33"/>
     </row>
-    <row r="22" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:41" s="5" customFormat="1">
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D22" s="5">
         <v>6998</v>
@@ -2824,9 +2820,9 @@
         <v>126876</v>
       </c>
     </row>
-    <row r="23" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:41" s="8" customFormat="1">
       <c r="B23" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8">
         <v>7024</v>
@@ -2889,9 +2885,9 @@
         <v>169993</v>
       </c>
     </row>
-    <row r="24" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:41" s="5" customFormat="1">
       <c r="B24" s="5" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" ref="D24:E24" si="26">D22-D23</f>
@@ -3022,9 +3018,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:41" s="9" customFormat="1">
       <c r="B25" s="9" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" ref="D25" si="38">D24/D22</f>
@@ -3155,17 +3151,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:41" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:41" s="10" customFormat="1">
       <c r="B26" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H26" s="34"/>
       <c r="L26" s="34"/>
       <c r="P26" s="34"/>
     </row>
-    <row r="27" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:41" s="12" customFormat="1">
       <c r="B27" s="12" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" ref="D27:F27" si="51">D17+D22</f>
@@ -3296,9 +3292,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:41" s="8" customFormat="1">
       <c r="B28" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D28" s="8">
         <f t="shared" ref="D28:F28" si="58">D18+D23</f>
@@ -3429,9 +3425,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:41" s="5" customFormat="1">
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D29" s="5">
         <f t="shared" ref="D29" si="64">D27-D28</f>
@@ -3562,9 +3558,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:41" s="9" customFormat="1">
       <c r="B30" s="9" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" ref="D30" si="77">D29/D27</f>
@@ -3695,17 +3691,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="2:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:41" s="9" customFormat="1">
       <c r="B31" s="21" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="H31" s="29"/>
       <c r="L31" s="29"/>
       <c r="P31" s="29"/>
     </row>
-    <row r="32" spans="2:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:41" s="9" customFormat="1">
       <c r="B32" s="9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" ref="D32:F32" si="90">D17/D$27</f>
@@ -3836,9 +3832,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" s="20" customFormat="1">
       <c r="B33" s="20" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D33" s="20">
         <f t="shared" ref="D33:F33" si="97">D22/D$27</f>
@@ -3969,9 +3965,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:41" s="9" customFormat="1">
       <c r="B34" s="9" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" ref="D34" si="104">SUM(D32:D33)</f>
@@ -4102,29 +4098,29 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:41" s="7" customFormat="1">
       <c r="A35" s="7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="H35" s="37"/>
       <c r="L35" s="37"/>
       <c r="P35" s="37"/>
     </row>
-    <row r="36" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:41" s="5" customFormat="1">
       <c r="B36" s="5" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="H36" s="31">
         <v>186185</v>
@@ -4177,18 +4173,18 @@
         <v>1633843</v>
       </c>
     </row>
-    <row r="37" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:41" s="5" customFormat="1">
       <c r="B37" s="5" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="H37" s="31">
         <v>5020</v>
@@ -4241,18 +4237,18 @@
         <v>46577</v>
       </c>
     </row>
-    <row r="38" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:41" s="5" customFormat="1">
       <c r="B38" s="5" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="H38" s="31">
         <v>30174</v>
@@ -4305,18 +4301,18 @@
         <v>292666</v>
       </c>
     </row>
-    <row r="39" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:41" s="8" customFormat="1">
       <c r="B39" s="8" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="H39" s="32">
         <v>7535</v>
@@ -4369,9 +4365,9 @@
         <v>92573</v>
       </c>
     </row>
-    <row r="40" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:41" s="12" customFormat="1">
       <c r="B40" s="12" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="D40" s="12">
         <f t="shared" ref="D40" si="117">SUM(D36:D39)</f>
@@ -4502,17 +4498,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:41" s="5" customFormat="1">
       <c r="B41" s="12" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="H41" s="31"/>
       <c r="L41" s="31"/>
       <c r="P41" s="31"/>
     </row>
-    <row r="42" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:41" s="9" customFormat="1">
       <c r="B42" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D42" s="9" t="e">
         <f t="shared" ref="D42:F42" si="130">D36/D$40</f>
@@ -4643,9 +4639,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:41" s="9" customFormat="1">
       <c r="B43" s="9" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="D43" s="9" t="e">
         <f t="shared" ref="D43:F43" si="138">D37/D$40</f>
@@ -4776,9 +4772,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:41" s="9" customFormat="1">
       <c r="B44" s="9" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="D44" s="9" t="e">
         <f t="shared" ref="D44:F44" si="144">D38/D$40</f>
@@ -4909,9 +4905,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:41" s="20" customFormat="1">
       <c r="B45" s="20" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="D45" s="20" t="e">
         <f t="shared" ref="D45:F45" si="150">D39/D$40</f>
@@ -5042,9 +5038,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:41" s="9" customFormat="1">
       <c r="B46" s="9" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="D46" s="9" t="e">
         <f t="shared" ref="D46" si="156">SUM(D42:D45)</f>
@@ -5175,25 +5171,25 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:41" s="13" customFormat="1">
       <c r="H47" s="38"/>
       <c r="L47" s="38"/>
       <c r="P47" s="38"/>
     </row>
-    <row r="48" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:41" s="7" customFormat="1">
       <c r="A48" s="7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H48" s="37"/>
       <c r="L48" s="37"/>
       <c r="P48" s="37"/>
     </row>
-    <row r="49" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:41" s="12" customFormat="1">
       <c r="B49" s="12" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D49" s="12">
         <v>108815</v>
@@ -5259,9 +5255,9 @@
         <v>2065659</v>
       </c>
     </row>
-    <row r="50" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:41" s="8" customFormat="1">
       <c r="B50" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D50" s="8">
         <v>42557</v>
@@ -5327,9 +5323,9 @@
         <v>717540</v>
       </c>
     </row>
-    <row r="51" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:41" s="5" customFormat="1">
       <c r="B51" s="5" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D51" s="5">
         <f t="shared" ref="D51" si="188">D49-D50</f>
@@ -5460,9 +5456,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:41" s="9" customFormat="1">
       <c r="B52" s="9" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" ref="D52" si="201">D51/D49</f>
@@ -5593,17 +5589,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:41" s="6" customFormat="1">
       <c r="B53" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H53" s="33"/>
       <c r="L53" s="33"/>
       <c r="P53" s="33"/>
     </row>
-    <row r="54" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:41" s="5" customFormat="1">
       <c r="B54" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D54" s="5">
         <v>97877</v>
@@ -5669,9 +5665,9 @@
         <v>1106507</v>
       </c>
     </row>
-    <row r="55" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:41" s="5" customFormat="1">
       <c r="B55" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D55" s="5">
         <v>33278</v>
@@ -5737,9 +5733,9 @@
         <v>788058</v>
       </c>
     </row>
-    <row r="56" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:41" s="8" customFormat="1">
       <c r="B56" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D56" s="8">
         <v>31506</v>
@@ -5805,9 +5801,9 @@
         <v>295821</v>
       </c>
     </row>
-    <row r="57" spans="2:41" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:41" s="11" customFormat="1">
       <c r="B57" s="11" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D57" s="11">
         <f t="shared" ref="D57" si="214">SUM(D54:D56)</f>
@@ -5938,9 +5934,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:41" s="5" customFormat="1">
       <c r="B58" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D58" s="5">
         <f t="shared" ref="D58" si="227">D51-D57</f>
@@ -6071,9 +6067,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:41" s="9" customFormat="1">
       <c r="B59" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" ref="D59" si="240">D58/D49</f>
@@ -6204,17 +6200,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:41" s="6" customFormat="1">
       <c r="B60" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H60" s="33"/>
       <c r="L60" s="33"/>
       <c r="P60" s="33"/>
     </row>
-    <row r="61" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:41" s="5" customFormat="1">
       <c r="B61" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D61" s="5">
         <v>2448</v>
@@ -6280,9 +6276,9 @@
         <v>73839</v>
       </c>
     </row>
-    <row r="62" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:41" s="8" customFormat="1">
       <c r="B62" s="8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D62" s="8">
         <v>67</v>
@@ -6348,9 +6344,9 @@
         <v>-47565</v>
       </c>
     </row>
-    <row r="63" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:41" s="5" customFormat="1">
       <c r="B63" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D63" s="5">
         <f t="shared" ref="D63" si="253">D58+SUM(D61:D62)</f>
@@ -6481,9 +6477,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:41" s="8" customFormat="1">
       <c r="B64" s="8" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D64" s="8">
         <v>-244</v>
@@ -6549,9 +6545,9 @@
         <v>-18467</v>
       </c>
     </row>
-    <row r="65" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:41" s="5" customFormat="1">
       <c r="B65" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D65" s="5">
         <f t="shared" ref="D65" si="266">D63-D64</f>
@@ -6682,9 +6678,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:41" s="8" customFormat="1">
       <c r="B66" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D66" s="8">
         <v>0</v>
@@ -6750,9 +6746,9 @@
         <v>-821</v>
       </c>
     </row>
-    <row r="67" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:41" s="5" customFormat="1">
       <c r="B67" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D67" s="5">
         <f t="shared" ref="D67" si="279">D65-D66</f>
@@ -6883,14 +6879,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:41" s="5" customFormat="1">
       <c r="H68" s="31"/>
       <c r="L68" s="31"/>
       <c r="P68" s="31"/>
     </row>
-    <row r="69" spans="1:41" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:41" s="17" customFormat="1">
       <c r="B69" s="17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D69" s="17">
         <f t="shared" ref="D69" si="292">D67/D70</f>
@@ -7021,9 +7017,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:41" s="5" customFormat="1">
       <c r="B70" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D70" s="5">
         <v>54304.137999999999</v>
@@ -7074,38 +7070,38 @@
         <v>318730</v>
       </c>
     </row>
-    <row r="71" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:41" s="5" customFormat="1">
       <c r="H71" s="31"/>
       <c r="L71" s="31"/>
       <c r="P71" s="31"/>
     </row>
-    <row r="72" spans="1:41" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:41" s="14" customFormat="1">
       <c r="H72" s="41"/>
       <c r="L72" s="41"/>
       <c r="P72" s="41"/>
     </row>
-    <row r="73" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:41" s="7" customFormat="1">
       <c r="A73" s="7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="H73" s="37"/>
       <c r="L73" s="37"/>
       <c r="P73" s="37"/>
     </row>
-    <row r="74" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:41" s="6" customFormat="1">
       <c r="B74" s="6" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="H74" s="33"/>
       <c r="L74" s="33"/>
       <c r="P74" s="33"/>
     </row>
-    <row r="75" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:41" s="5" customFormat="1">
       <c r="B75" s="5" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="G75" s="5">
         <f>AE75</f>
@@ -7159,9 +7155,9 @@
         <v>939902</v>
       </c>
     </row>
-    <row r="76" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:41" s="5" customFormat="1">
       <c r="B76" s="5" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="G76" s="5">
         <f>AE76</f>
@@ -7215,9 +7211,9 @@
         <v>3067966</v>
       </c>
     </row>
-    <row r="77" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:41" s="5" customFormat="1">
       <c r="B77" s="5" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="G77" s="5">
         <f>AE77</f>
@@ -7271,9 +7267,9 @@
         <v>715821</v>
       </c>
     </row>
-    <row r="78" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:41" s="5" customFormat="1">
       <c r="B78" s="5" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="G78" s="5">
         <f>AE78</f>
@@ -7327,9 +7323,9 @@
         <v>67901</v>
       </c>
     </row>
-    <row r="79" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:41" s="8" customFormat="1">
       <c r="B79" s="8" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="G79" s="8">
         <f>AE79</f>
@@ -7383,9 +7379,9 @@
         <v>193100</v>
       </c>
     </row>
-    <row r="80" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:41" s="5" customFormat="1">
       <c r="B80" s="5" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="D80" s="5">
         <f t="shared" ref="D80" si="305">SUM(D75:D79)</f>
@@ -7516,17 +7512,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:41" s="6" customFormat="1">
       <c r="B81" s="6" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="H81" s="33"/>
       <c r="L81" s="33"/>
       <c r="P81" s="33"/>
     </row>
-    <row r="82" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:41" s="5" customFormat="1">
       <c r="B82" s="5" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="G82" s="5">
         <f t="shared" ref="G82:G88" si="318">AE82</f>
@@ -7580,9 +7576,9 @@
         <v>1073023</v>
       </c>
     </row>
-    <row r="83" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:41" s="5" customFormat="1">
       <c r="B83" s="5" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="G83" s="5">
         <f t="shared" si="318"/>
@@ -7636,9 +7632,9 @@
         <v>160823</v>
       </c>
     </row>
-    <row r="84" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:41" s="5" customFormat="1">
       <c r="B84" s="5" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="G84" s="5">
         <f t="shared" si="318"/>
@@ -7692,9 +7688,9 @@
         <v>231266</v>
       </c>
     </row>
-    <row r="85" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:41" s="5" customFormat="1">
       <c r="B85" s="5" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G85" s="5">
         <f t="shared" si="318"/>
@@ -7748,9 +7744,9 @@
         <v>657370</v>
       </c>
     </row>
-    <row r="86" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:41" s="5" customFormat="1">
       <c r="B86" s="5" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="G86" s="5">
         <f t="shared" si="318"/>
@@ -7804,9 +7800,9 @@
         <v>186013</v>
       </c>
     </row>
-    <row r="87" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:41" s="5" customFormat="1">
       <c r="B87" s="5" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="G87" s="5">
         <f t="shared" si="318"/>
@@ -7860,9 +7856,9 @@
         <v>145286</v>
       </c>
     </row>
-    <row r="88" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:41" s="8" customFormat="1">
       <c r="B88" s="8" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="G88" s="5">
         <f t="shared" si="318"/>
@@ -7916,9 +7912,9 @@
         <v>283851</v>
       </c>
     </row>
-    <row r="89" spans="2:41" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:41" s="11" customFormat="1">
       <c r="B89" s="11" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="D89" s="11">
         <f t="shared" ref="D89" si="321">SUM(D82:D88)</f>
@@ -8049,9 +8045,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:41" s="12" customFormat="1">
       <c r="B90" s="12" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="D90" s="12">
         <f t="shared" ref="D90" si="334">D89+D80</f>
@@ -8182,17 +8178,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:41" s="6" customFormat="1">
       <c r="B91" s="6" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H91" s="33"/>
       <c r="L91" s="33"/>
       <c r="P91" s="33"/>
     </row>
-    <row r="92" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:41" s="5" customFormat="1">
       <c r="B92" s="5" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="G92" s="5">
         <f>AE92</f>
@@ -8246,9 +8242,9 @@
         <v>23672</v>
       </c>
     </row>
-    <row r="93" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:41" s="5" customFormat="1">
       <c r="B93" s="5" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="G93" s="5">
         <f>AE93</f>
@@ -8302,9 +8298,9 @@
         <v>269069</v>
       </c>
     </row>
-    <row r="94" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:41" s="5" customFormat="1">
       <c r="B94" s="5" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="G94" s="5">
         <f>AE94</f>
@@ -8358,9 +8354,9 @@
         <v>27301</v>
       </c>
     </row>
-    <row r="95" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:41" s="8" customFormat="1">
       <c r="B95" s="8" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="G95" s="8">
         <f>AE95</f>
@@ -8414,9 +8410,9 @@
         <v>1673475</v>
       </c>
     </row>
-    <row r="96" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:41" s="5" customFormat="1">
       <c r="B96" s="5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="D96" s="5">
         <f t="shared" ref="D96" si="347">SUM(D92:D95)</f>
@@ -8547,17 +8543,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:41" s="6" customFormat="1">
       <c r="B97" s="6" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="H97" s="33"/>
       <c r="L97" s="33"/>
       <c r="P97" s="33"/>
     </row>
-    <row r="98" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:41" s="5" customFormat="1">
       <c r="B98" s="5" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="G98" s="5">
         <f>AE98</f>
@@ -8611,9 +8607,9 @@
         <v>224357</v>
       </c>
     </row>
-    <row r="99" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:41" s="5" customFormat="1">
       <c r="B99" s="5" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G99" s="5">
         <f>AE99</f>
@@ -8667,9 +8663,9 @@
         <v>11463</v>
       </c>
     </row>
-    <row r="100" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:41" s="8" customFormat="1">
       <c r="B100" s="8" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="G100" s="5">
         <f>AE100</f>
@@ -8723,9 +8719,9 @@
         <v>24370</v>
       </c>
     </row>
-    <row r="101" spans="2:41" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:41" s="11" customFormat="1">
       <c r="B101" s="11" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="D101" s="11">
         <f t="shared" ref="D101" si="360">SUM(D98:D100)</f>
@@ -8856,9 +8852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:41" s="12" customFormat="1">
       <c r="B102" s="12" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="D102" s="12">
         <f t="shared" ref="D102" si="373">D101+D96</f>
@@ -8989,17 +8985,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:41" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:41" s="6" customFormat="1">
       <c r="B103" s="6" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="H103" s="33"/>
       <c r="L103" s="33"/>
       <c r="P103" s="33"/>
     </row>
-    <row r="104" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:41" s="5" customFormat="1">
       <c r="B104" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G104" s="5">
         <f>AE104</f>
@@ -9053,9 +9049,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:41" s="5" customFormat="1">
       <c r="B105" s="5" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="G105" s="5">
         <f>AE105</f>
@@ -9109,9 +9105,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:41" s="5" customFormat="1">
       <c r="B106" s="5" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="G106" s="5">
         <f>AE106</f>
@@ -9166,9 +9162,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:41" s="5" customFormat="1">
       <c r="B107" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G107" s="5">
         <v>0</v>
@@ -9207,9 +9203,9 @@
         <v>-68299</v>
       </c>
     </row>
-    <row r="108" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:41" s="5" customFormat="1">
       <c r="B108" s="5" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="G108" s="5">
         <f>AE108</f>
@@ -9263,9 +9259,9 @@
         <v>8210750</v>
       </c>
     </row>
-    <row r="109" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:41" s="5" customFormat="1">
       <c r="B109" s="5" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="G109" s="5">
         <f>AE109</f>
@@ -9319,9 +9315,9 @@
         <v>-38272</v>
       </c>
     </row>
-    <row r="110" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:41" s="8" customFormat="1">
       <c r="B110" s="8" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="G110" s="8">
         <f>AE110</f>
@@ -9375,9 +9371,9 @@
         <v>-2716074</v>
       </c>
     </row>
-    <row r="111" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:41" s="5" customFormat="1">
       <c r="B111" s="5" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="D111" s="5">
         <f t="shared" ref="D111" si="386">SUM(D105:D110)</f>
@@ -9508,9 +9504,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:41" s="8" customFormat="1">
       <c r="B112" s="8" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="G112" s="5">
         <f>AE112</f>
@@ -9559,9 +9555,9 @@
         <v>12179</v>
       </c>
     </row>
-    <row r="113" spans="1:41" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:41" s="15" customFormat="1">
       <c r="B113" s="15" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="D113" s="15">
         <f t="shared" ref="D113" si="398">D111+D112</f>
@@ -9692,9 +9688,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:41" s="12" customFormat="1">
       <c r="B114" s="12" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="D114" s="12">
         <f t="shared" ref="D114" si="411">D113+D102+D104</f>
@@ -9825,25 +9821,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:41" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:41" s="14" customFormat="1">
       <c r="H115" s="41"/>
       <c r="L115" s="41"/>
       <c r="P115" s="41"/>
     </row>
-    <row r="116" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:41" s="7" customFormat="1">
       <c r="A116" s="7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H116" s="37"/>
       <c r="L116" s="37"/>
       <c r="P116" s="37"/>
     </row>
-    <row r="117" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:41" s="5" customFormat="1">
       <c r="B117" s="5" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="D117" s="5">
         <v>-6592</v>
@@ -9909,9 +9905,9 @@
         <v>545639</v>
       </c>
     </row>
-    <row r="118" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:41" s="8" customFormat="1">
       <c r="B118" s="8" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="D118" s="8">
         <f>-2033-2189</f>
@@ -9994,9 +9990,9 @@
         <v>-49140</v>
       </c>
     </row>
-    <row r="119" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:41" s="5" customFormat="1">
       <c r="B119" s="5" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="D119" s="5">
         <f t="shared" ref="D119" si="424">SUM(D117:D118)</f>
@@ -10127,14 +10123,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:41" s="5" customFormat="1">
       <c r="H120" s="31"/>
       <c r="L120" s="31"/>
       <c r="P120" s="31"/>
     </row>
-    <row r="121" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:41" s="5" customFormat="1">
       <c r="B121" s="5" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="D121" s="5">
         <v>478573</v>
@@ -10202,9 +10198,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:41" s="5" customFormat="1">
       <c r="B122" s="5" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="D122" s="5">
         <v>20445</v>
@@ -10270,9 +10266,9 @@
         <v>861533</v>
       </c>
     </row>
-    <row r="123" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:41" s="5" customFormat="1">
       <c r="B123" s="5" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="D123" s="5">
         <f>D110</f>
@@ -10339,9 +10335,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:41" s="5" customFormat="1">
       <c r="B124" s="5" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="D124" s="5">
         <f>D111</f>
@@ -10408,14 +10404,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:41" s="5" customFormat="1">
       <c r="H125" s="31"/>
       <c r="L125" s="31"/>
       <c r="P125" s="31"/>
     </row>
-    <row r="126" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:41" s="5" customFormat="1">
       <c r="B126" s="5" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="H126" s="31"/>
       <c r="L126" s="31"/>
@@ -10436,9 +10432,9 @@
         <v>1102534</v>
       </c>
     </row>
-    <row r="127" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:41" s="5" customFormat="1">
       <c r="B127" s="5" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="H127" s="31"/>
       <c r="L127" s="31"/>
@@ -10459,22 +10455,22 @@
         <v>956731</v>
       </c>
     </row>
-    <row r="128" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:41" s="5" customFormat="1">
       <c r="H128" s="31"/>
       <c r="L128" s="31"/>
       <c r="P128" s="31"/>
     </row>
-    <row r="129" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:41" s="6" customFormat="1">
       <c r="B129" s="6" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="H129" s="33"/>
       <c r="L129" s="33"/>
       <c r="P129" s="33"/>
     </row>
-    <row r="130" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:41" s="5" customFormat="1">
       <c r="B130" s="5" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="D130" s="5">
         <f>D117</f>
@@ -10537,9 +10533,9 @@
         <v>120907</v>
       </c>
     </row>
-    <row r="131" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:41" s="8" customFormat="1">
       <c r="B131" s="8" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="D131" s="8">
         <f>D118</f>
@@ -10602,9 +10598,9 @@
         <v>-18635</v>
       </c>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:41">
       <c r="B132" s="5" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="D132" s="5">
         <f t="shared" ref="D132" si="437">SUM(D130:D131)</f>
@@ -10668,16 +10664,16 @@
       </c>
       <c r="S132" s="5"/>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:41">
       <c r="B133" s="5"/>
       <c r="D133" s="5"/>
       <c r="H133" s="31"/>
       <c r="L133" s="31"/>
       <c r="P133" s="31"/>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:41">
       <c r="B134" s="5" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="D134" s="5">
         <f>D121</f>
@@ -10741,9 +10737,9 @@
       </c>
       <c r="S134" s="5"/>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:41">
       <c r="B135" s="5" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="D135" s="5">
         <f>D122</f>
@@ -10807,12 +10803,12 @@
       </c>
       <c r="S135" s="5"/>
       <c r="Z135" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:41">
       <c r="B136" s="5" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="D136" s="5">
         <f>D123</f>
@@ -10876,9 +10872,9 @@
       </c>
       <c r="S136" s="5"/>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:41">
       <c r="B137" s="5" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="D137" s="5">
         <f>D124</f>
@@ -10942,33 +10938,33 @@
       </c>
       <c r="S137" s="5"/>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:41">
       <c r="B138" s="5"/>
     </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:41">
       <c r="B139" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:41">
       <c r="B140" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="143" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="143" spans="1:41" s="1" customFormat="1">
       <c r="A143" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="H143" s="26"/>
       <c r="L143" s="26"/>
       <c r="P143" s="26"/>
     </row>
-    <row r="144" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:41" s="5" customFormat="1">
       <c r="B144" s="5" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="H144" s="31"/>
       <c r="L144" s="31"/>
@@ -11026,9 +11022,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:41">
       <c r="B145" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AC145" s="5">
         <f>AC70</f>
@@ -11083,9 +11079,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:41">
       <c r="B146" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="AC146" s="23">
         <f>AC144/AC49</f>
@@ -11140,9 +11136,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="147" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:41">
       <c r="B147" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="AC147" s="23">
         <f>AC144/AC67</f>
@@ -11197,9 +11193,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="148" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:41">
       <c r="B148" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="AC148" s="23" t="e">
         <f>AC144/AC113</f>
@@ -11254,9 +11250,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="149" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:41">
       <c r="B149" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="AC149" s="23">
         <f>AC144/AC119</f>
@@ -11311,20 +11307,20 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="151" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:41" s="1" customFormat="1">
       <c r="A151" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="H151" s="26"/>
       <c r="L151" s="26"/>
       <c r="P151" s="26"/>
     </row>
-    <row r="152" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:41" s="22" customFormat="1">
       <c r="B152" s="22" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="H152" s="43"/>
       <c r="L152" s="43"/>
@@ -11382,9 +11378,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="153" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:41" s="22" customFormat="1">
       <c r="B153" s="22" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="H153" s="43"/>
       <c r="L153" s="43"/>
@@ -11442,9 +11438,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:41">
       <c r="B154" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AD154" s="9" t="e">
         <f>(AD70-AC70)/ABS(AC70)</f>
@@ -11512,7 +11508,7 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SNOW/SNOW.xlsx
+++ b/SNOW/SNOW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/SNOW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2097" documentId="8_{802759B5-6396-440F-9600-E94D6CFC7CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D09EC8F7-EF8D-4D4E-8232-EE15F08A7A3C}"/>
+  <xr:revisionPtr revIDLastSave="2151" documentId="8_{802759B5-6396-440F-9600-E94D6CFC7CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{971BE0B9-6848-47E2-80ED-21026AD2FB5F}"/>
   <bookViews>
     <workbookView xWindow="11750" yWindow="3410" windowWidth="28800" windowHeight="15460" firstSheet="2" activeTab="2" xr2:uid="{CEA71A0E-9C7D-494B-9C79-388ACB801F89}"/>
   </bookViews>
@@ -918,12 +918,10 @@
     <v>Finance</v>
     <v>4</v>
     <v>237.72</v>
-    <v>122.6</v>
-    <v>0.84889999999999999</v>
-    <v>1.51</v>
-    <v>-3.1450000000000002E-3</v>
-    <v>1.1715999999999999E-2</v>
-    <v>-0.41</v>
+    <v>121.45</v>
+    <v>0.84530000000000005</v>
+    <v>-6.49</v>
+    <v>-4.9778000000000003E-2</v>
     <v>USD</v>
     <v>Snowflake Inc. enables every organization to mobilize their data with Snowflakes Data Cloud. The Company’s platform powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, apply artificial intelligence (AI) to solve business problems, build data applications, and share data and data products. Its platform supports a range of workload, including data warehouse, data lake, data engineering, AI/machine learning (ML), applications, collaboration, cybersecurity, and Unistore. Its cloud-native architecture consists of three independently scalable but logically integrated layers across compute, storage, and cloud services. The compute layer provides dedicated resources to enable users to simultaneously access common data sets for many use cases with minimal latency. The storage layer ingests massive amounts and varieties of structured, semi-structured, and unstructured data to create a unified data record.</v>
     <v>7004</v>
@@ -931,24 +929,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>132.55000000000001</v>
+    <v>129.79</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45504.974695786717</v>
+    <v>45505.828278055465</v>
     <v>0</v>
-    <v>128.77000000000001</v>
-    <v>43654571999</v>
+    <v>121.45</v>
+    <v>43149020000</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>129.35</v>
-    <v>128.88</v>
-    <v>130.38999999999999</v>
-    <v>129.97</v>
+    <v>129.38</v>
+    <v>130.38</v>
+    <v>123.89</v>
     <v>334800000</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>5496690</v>
-    <v>5962329</v>
+    <v>5983688</v>
+    <v>5794405</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -979,9 +976,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1001,7 +996,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1018,7 +1012,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1029,16 +1023,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1102,19 +1093,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1158,9 +1143,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1168,9 +1150,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -1571,7 +1550,7 @@
       </c>
       <c r="B2" s="3" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>130.38999999999999</v>
+        <v>123.89</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1589,7 +1568,7 @@
       </c>
       <c r="B4" s="3">
         <f>B2*B3</f>
-        <v>43654.572</v>
+        <v>41478.372000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1751,8 +1730,8 @@
   <dimension ref="A1:AO154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="S11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AG30" sqref="AD30:AG30"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="Z8" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AG27" sqref="AD27:AG27"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
